--- a/model/ModelData/PEEP7/RR12/C_T0.01/PaO15/Data/Data.xlsx
+++ b/model/ModelData/PEEP7/RR12/C_T0.01/PaO15/Data/Data.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/zgong9_jh_edu/Documents/Attachments/JHU(1)/2023 Spring/Introduction to Research/Project/Latest_model/resp-mech-simulink-model/model/ModelData/PEEP7/RR12/C_T0.01/PaO15/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_714DE947CD68524DF5905F04FD012D166188EE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9981EE88-445B-1A48-98BF-3A4ED48A44AB}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time</t>
   </si>
@@ -42,134 +49,14 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Data4</t>
+    <t>Qa(Airflow)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -203,13 +90,323 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
@@ -218,24 +415,24 @@
     <col min="5" max="5" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0">
         <v>0</v>
       </c>
@@ -252,7 +449,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0">
         <v>0.01</v>
       </c>
@@ -269,7 +466,7 @@
         <v>1.9003483253966487</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0">
         <v>0.02</v>
       </c>
@@ -286,7 +483,7 @@
         <v>1.0210949274860779</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0">
         <v>0.029999999999999999</v>
       </c>
@@ -303,7 +500,7 @@
         <v>0.780850116939793</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0">
         <v>0.040000000000000001</v>
       </c>
@@ -320,7 +517,7 @@
         <v>0.63428313101315859</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0">
         <v>0.050000000000000003</v>
       </c>
@@ -337,7 +534,7 @@
         <v>0.57209341496893185</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0">
         <v>0.060000000000000005</v>
       </c>
@@ -354,7 +551,7 @@
         <v>0.53059959873366047</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0">
         <v>0.070000000000000007</v>
       </c>
@@ -371,7 +568,7 @@
         <v>0.5097931707277521</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0">
         <v>0.080000000000000002</v>
       </c>
@@ -388,7 +585,7 @@
         <v>0.49670789122148717</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0">
         <v>0.089999999999999997</v>
       </c>
@@ -405,7 +602,7 @@
         <v>0.48969151954618872</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0">
         <v>0.099999999999999992</v>
       </c>
@@ -422,7 +619,7 @@
         <v>0.48546216800722047</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0">
         <v>0.10999999999999999</v>
       </c>
@@ -439,7 +636,7 @@
         <v>0.48311911853154221</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0">
         <v>0.11999999999999998</v>
       </c>
@@ -456,7 +653,7 @@
         <v>0.48173917364413238</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0">
         <v>0.12999999999999998</v>
       </c>
@@ -473,7 +670,7 @@
         <v>0.30002008301012961</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0">
         <v>0.13999999999999999</v>
       </c>
@@ -490,7 +687,7 @@
         <v>0.11873367499503294</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="0">
         <v>0.14999999999999999</v>
       </c>
@@ -507,7 +704,7 @@
         <v>0.082422605008062477</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" s="0">
         <v>0.16</v>
       </c>
@@ -524,7 +721,7 @@
         <v>0.039938565704959565</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" s="0">
         <v>0.17000000000000001</v>
       </c>
@@ -541,7 +738,7 @@
         <v>0.025727493574580144</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" s="0">
         <v>0.18000000000000002</v>
       </c>
@@ -558,7 +755,7 @@
         <v>0.013555340404407088</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" x14ac:dyDescent="0.2">
       <c r="A21" s="0">
         <v>0.19000000000000003</v>
       </c>
@@ -575,7 +772,7 @@
         <v>0.0082759786657015232</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" x14ac:dyDescent="0.2">
       <c r="A22" s="0">
         <v>0.20000000000000004</v>
       </c>
@@ -592,7 +789,7 @@
         <v>0.0045430120082799522</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" x14ac:dyDescent="0.2">
       <c r="A23" s="0">
         <v>0.21000000000000005</v>
       </c>
@@ -609,7 +806,7 @@
         <v>0.002693589828753673</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" x14ac:dyDescent="0.2">
       <c r="A24" s="0">
         <v>0.22000000000000006</v>
       </c>
@@ -626,7 +823,7 @@
         <v>0.0015103580135988363</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" x14ac:dyDescent="0.2">
       <c r="A25" s="0">
         <v>0.23000000000000007</v>
       </c>
@@ -643,7 +840,7 @@
         <v>0.00088179420288603413</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" x14ac:dyDescent="0.2">
       <c r="A26" s="0">
         <v>0.24000000000000007</v>
       </c>
@@ -660,7 +857,7 @@
         <v>0.00049997360999931551</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" x14ac:dyDescent="0.2">
       <c r="A27" s="0">
         <v>0.25000000000000006</v>
       </c>
@@ -677,7 +874,7 @@
         <v>0.00028954966267313815</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" x14ac:dyDescent="0.2">
       <c r="A28" s="0">
         <v>0.26000000000000006</v>
       </c>
@@ -694,7 +891,7 @@
         <v>0.00016513441214094352</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" x14ac:dyDescent="0.2">
       <c r="A29" s="0">
         <v>0.27000000000000007</v>
       </c>
@@ -711,7 +908,7 @@
         <v>9.523003659417411e-05</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" x14ac:dyDescent="0.2">
       <c r="A30" s="0">
         <v>0.28000000000000008</v>
       </c>
@@ -728,7 +925,7 @@
         <v>5.4477619671589134e-05</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" x14ac:dyDescent="0.2">
       <c r="A31" s="0">
         <v>0.29000000000000009</v>
       </c>
@@ -745,7 +942,7 @@
         <v>3.1346601490622793e-05</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" x14ac:dyDescent="0.2">
       <c r="A32" s="0">
         <v>0.3000000000000001</v>
       </c>
@@ -762,7 +959,7 @@
         <v>1.7961061077542956e-05</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" x14ac:dyDescent="0.2">
       <c r="A33" s="0">
         <v>0.31000000000000011</v>
       </c>
@@ -779,7 +976,7 @@
         <v>1.0322836249465634e-05</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" x14ac:dyDescent="0.2">
       <c r="A34" s="0">
         <v>0.32000000000000012</v>
       </c>
@@ -796,7 +993,7 @@
         <v>5.919789259789542e-06</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" x14ac:dyDescent="0.2">
       <c r="A35" s="0">
         <v>0.33000000000000013</v>
       </c>
@@ -813,7 +1010,7 @@
         <v>3.4002309513003818e-06</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" x14ac:dyDescent="0.2">
       <c r="A36" s="0">
         <v>0.34000000000000014</v>
       </c>
@@ -830,7 +1027,7 @@
         <v>1.950775823877929e-06</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" x14ac:dyDescent="0.2">
       <c r="A37" s="0">
         <v>0.35000000000000014</v>
       </c>
@@ -847,7 +1044,7 @@
         <v>1.1201357903443213e-06</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" x14ac:dyDescent="0.2">
       <c r="A38" s="0">
         <v>0.36000000000000015</v>
       </c>
@@ -864,7 +1061,7 @@
         <v>6.4279154265987714e-07</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" x14ac:dyDescent="0.2">
       <c r="A39" s="0">
         <v>0.37000000000000016</v>
       </c>
@@ -881,7 +1078,7 @@
         <v>3.690291425217935e-07</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" x14ac:dyDescent="0.2">
       <c r="A40" s="0">
         <v>0.38000000000000017</v>
       </c>
@@ -898,7 +1095,7 @@
         <v>2.1179360848444549e-07</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" x14ac:dyDescent="0.2">
       <c r="A41" s="0">
         <v>0.39000000000000018</v>
       </c>
@@ -915,7 +1112,7 @@
         <v>1.215808520529002e-07</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" x14ac:dyDescent="0.2">
       <c r="A42" s="0">
         <v>0.40000000000000019</v>
       </c>
@@ -932,7 +1129,7 @@
         <v>6.9782258194087692e-08</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" x14ac:dyDescent="0.2">
       <c r="A43" s="0">
         <v>0.4100000000000002</v>
       </c>
@@ -949,7 +1146,7 @@
         <v>4.0056900685314711e-08</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" x14ac:dyDescent="0.2">
       <c r="A44" s="0">
         <v>0.42000000000000021</v>
       </c>
@@ -966,7 +1163,7 @@
         <v>2.2991729409220193e-08</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" x14ac:dyDescent="0.2">
       <c r="A45" s="0">
         <v>0.43000000000000022</v>
       </c>
@@ -983,7 +1180,7 @@
         <v>1.3197555603916575e-08</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" x14ac:dyDescent="0.2">
       <c r="A46" s="0">
         <v>0.44000000000000022</v>
       </c>
@@ -1000,7 +1197,7 @@
         <v>7.5752222273695698e-09</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" x14ac:dyDescent="0.2">
       <c r="A47" s="0">
         <v>0.45000000000000023</v>
       </c>
@@ -1017,7 +1214,7 @@
         <v>4.348221782635171e-09</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" x14ac:dyDescent="0.2">
       <c r="A48" s="0">
         <v>0.46000000000000024</v>
       </c>
@@ -1034,7 +1231,7 @@
         <v>2.4958464739377503e-09</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" x14ac:dyDescent="0.2">
       <c r="A49" s="0">
         <v>0.47000000000000025</v>
       </c>
@@ -1051,7 +1248,7 @@
         <v>1.4326203001679996e-09</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" x14ac:dyDescent="0.2">
       <c r="A50" s="0">
         <v>0.48000000000000026</v>
       </c>
@@ -1068,7 +1265,7 @@
         <v>8.2231499387575137e-10</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" x14ac:dyDescent="0.2">
       <c r="A51" s="0">
         <v>0.49000000000000027</v>
       </c>
@@ -1085,7 +1282,7 @@
         <v>4.720093205179417e-10</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" x14ac:dyDescent="0.2">
       <c r="A52" s="0">
         <v>0.50000000000000022</v>
       </c>
@@ -1102,7 +1299,7 @@
         <v>2.7093172148050179e-10</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" x14ac:dyDescent="0.2">
       <c r="A53" s="0">
         <v>0.51000000000000023</v>
       </c>
@@ -1119,7 +1316,7 @@
         <v>1.5551587795314984e-10</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" x14ac:dyDescent="0.2">
       <c r="A54" s="0">
         <v>0.52000000000000024</v>
       </c>
@@ -1136,7 +1333,7 @@
         <v>8.9266483094263704e-11</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" x14ac:dyDescent="0.2">
       <c r="A55" s="0">
         <v>0.53000000000000025</v>
       </c>
@@ -1153,7 +1350,7 @@
         <v>5.1237236675660902e-11</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" x14ac:dyDescent="0.2">
       <c r="A56" s="0">
         <v>0.54000000000000026</v>
       </c>
@@ -1170,7 +1367,7 @@
         <v>2.9410918145345067e-11</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" x14ac:dyDescent="0.2">
       <c r="A57" s="0">
         <v>0.55000000000000027</v>
       </c>
@@ -1187,7 +1384,7 @@
         <v>1.6881274156332919e-11</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" x14ac:dyDescent="0.2">
       <c r="A58" s="0">
         <v>0.56000000000000028</v>
       </c>
@@ -1204,7 +1401,7 @@
         <v>9.6900265547418291e-12</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" x14ac:dyDescent="0.2">
       <c r="A59" s="0">
         <v>0.57000000000000028</v>
       </c>
@@ -1221,7 +1418,7 @@
         <v>5.563938199060213e-12</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" x14ac:dyDescent="0.2">
       <c r="A60" s="0">
         <v>0.58000000000000029</v>
       </c>
@@ -1238,7 +1435,7 @@
         <v>3.1926128407633363e-12</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" x14ac:dyDescent="0.2">
       <c r="A61" s="0">
         <v>0.5900000000000003</v>
       </c>
@@ -1255,7 +1452,7 @@
         <v>1.8323120798413612e-12</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" x14ac:dyDescent="0.2">
       <c r="A62" s="0">
         <v>0.60000000000000031</v>
       </c>
@@ -1272,7 +1469,7 @@
         <v>1.0533796281462627e-12</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" x14ac:dyDescent="0.2">
       <c r="A63" s="0">
         <v>0.61000000000000032</v>
       </c>
@@ -1289,7 +1486,7 @@
         <v>6.041833700010112e-13</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" x14ac:dyDescent="0.2">
       <c r="A64" s="0">
         <v>0.62000000000000033</v>
       </c>
@@ -1306,7 +1503,7 @@
         <v>3.4638958517935778e-13</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" x14ac:dyDescent="0.2">
       <c r="A65" s="0">
         <v>0.63000000000000034</v>
       </c>
@@ -1323,7 +1520,7 @@
         <v>2.0072828469249525e-13</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" x14ac:dyDescent="0.2">
       <c r="A66" s="0">
         <v>0.64000000000000035</v>
       </c>
@@ -1340,7 +1537,7 @@
         <v>1.1513012765362891e-13</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" x14ac:dyDescent="0.2">
       <c r="A67" s="0">
         <v>0.65000000000000036</v>
       </c>
@@ -1357,7 +1554,7 @@
         <v>6.4004357369640376e-14</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" x14ac:dyDescent="0.2">
       <c r="A68" s="0">
         <v>0.66000000000000036</v>
       </c>
@@ -1374,7 +1571,7 @@
         <v>3.7303513876013464e-14</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" x14ac:dyDescent="0.2">
       <c r="A69" s="0">
         <v>0.67000000000000037</v>
       </c>
@@ -1391,7 +1588,7 @@
         <v>2.3092588903485715e-14</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" x14ac:dyDescent="0.2">
       <c r="A70" s="0">
         <v>0.68000000000000038</v>
       </c>
@@ -1408,7 +1605,7 @@
         <v>1.3322676295501897e-14</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" x14ac:dyDescent="0.2">
       <c r="A71" s="0">
         <v>0.69000000000000039</v>
       </c>
@@ -1425,7 +1622,7 @@
         <v>5.662137425588311e-15</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" x14ac:dyDescent="0.2">
       <c r="A72" s="0">
         <v>0.7000000000000004</v>
       </c>
@@ -1442,7 +1639,7 @@
         <v>5.3290230557906842e-15</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" x14ac:dyDescent="0.2">
       <c r="A73" s="0">
         <v>0.71000000000000041</v>
       </c>
@@ -1459,7 +1656,7 @@
         <v>2.9420910152566688e-15</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" x14ac:dyDescent="0.2">
       <c r="A74" s="0">
         <v>0.72000000000000042</v>
       </c>
@@ -1476,7 +1673,7 @@
         <v>1.7762859840040383e-15</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" x14ac:dyDescent="0.2">
       <c r="A75" s="0">
         <v>0.73000000000000043</v>
       </c>
@@ -1493,7 +1690,7 @@
         <v>1.7763568394002509e-15</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" x14ac:dyDescent="0.2">
       <c r="A76" s="0">
         <v>0.74000000000000044</v>
       </c>
@@ -1510,7 +1707,7 @@
         <v>-1.7763599311575015e-15</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" x14ac:dyDescent="0.2">
       <c r="A77" s="0">
         <v>0.75000000000000044</v>
       </c>
@@ -1527,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" x14ac:dyDescent="0.2">
       <c r="A78" s="0">
         <v>0.76000000000000045</v>
       </c>
@@ -1544,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" x14ac:dyDescent="0.2">
       <c r="A79" s="0">
         <v>0.77000000000000046</v>
       </c>
@@ -1561,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" x14ac:dyDescent="0.2">
       <c r="A80" s="0">
         <v>0.78000000000000047</v>
       </c>
@@ -1578,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" x14ac:dyDescent="0.2">
       <c r="A81" s="0">
         <v>0.79000000000000048</v>
       </c>
@@ -1595,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" x14ac:dyDescent="0.2">
       <c r="A82" s="0">
         <v>0.80000000000000049</v>
       </c>
@@ -1612,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" x14ac:dyDescent="0.2">
       <c r="A83" s="0">
         <v>0.8100000000000005</v>
       </c>
@@ -1629,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" x14ac:dyDescent="0.2">
       <c r="A84" s="0">
         <v>0.82000000000000051</v>
       </c>
@@ -1646,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" x14ac:dyDescent="0.2">
       <c r="A85" s="0">
         <v>0.83000000000000052</v>
       </c>
@@ -1663,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" x14ac:dyDescent="0.2">
       <c r="A86" s="0">
         <v>0.84000000000000052</v>
       </c>
@@ -1680,7 +1877,7 @@
         <v>-3.3580246913580254</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" x14ac:dyDescent="0.2">
       <c r="A87" s="0">
         <v>0.85000000000000053</v>
       </c>
@@ -1697,7 +1894,7 @@
         <v>-0.15241579027587493</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" x14ac:dyDescent="0.2">
       <c r="A88" s="0">
         <v>0.86000000000000054</v>
       </c>
@@ -1714,7 +1911,7 @@
         <v>-0.75651671587250524</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" x14ac:dyDescent="0.2">
       <c r="A89" s="0">
         <v>0.87000000000000055</v>
       </c>
@@ -1731,7 +1928,7 @@
         <v>-0.14373076174605703</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" x14ac:dyDescent="0.2">
       <c r="A90" s="0">
         <v>0.88000000000000056</v>
       </c>
@@ -1748,7 +1945,7 @@
         <v>-0.20098672656646294</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" x14ac:dyDescent="0.2">
       <c r="A91" s="0">
         <v>0.89000000000000057</v>
       </c>
@@ -1765,7 +1962,7 @@
         <v>-0.065712955860580347</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" x14ac:dyDescent="0.2">
       <c r="A92" s="0">
         <v>0.90000000000000058</v>
       </c>
@@ -1782,7 +1979,7 @@
         <v>-0.058281765082526214</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" x14ac:dyDescent="0.2">
       <c r="A93" s="0">
         <v>0.91000000000000059</v>
       </c>
@@ -1799,7 +1996,7 @@
         <v>-0.024894015387860645</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" x14ac:dyDescent="0.2">
       <c r="A94" s="0">
         <v>0.9200000000000006</v>
       </c>
@@ -1816,7 +2013,7 @@
         <v>-0.017844198568606195</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" x14ac:dyDescent="0.2">
       <c r="A95" s="0">
         <v>0.9300000000000006</v>
       </c>
@@ -1833,7 +2030,7 @@
         <v>-0.0087645375856970631</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" x14ac:dyDescent="0.2">
       <c r="A96" s="0">
         <v>0.94000000000000061</v>
       </c>
@@ -1850,7 +2047,7 @@
         <v>-0.0056450259927833804</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" x14ac:dyDescent="0.2">
       <c r="A97" s="0">
         <v>0.95000000000000062</v>
       </c>
@@ -1867,7 +2064,7 @@
         <v>-0.0029849464045463847</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" x14ac:dyDescent="0.2">
       <c r="A98" s="0">
         <v>0.96000000000000063</v>
       </c>
@@ -1884,7 +2081,7 @@
         <v>-0.0018194516845975168</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" x14ac:dyDescent="0.2">
       <c r="A99" s="0">
         <v>0.97000000000000064</v>
       </c>
@@ -1901,7 +2098,7 @@
         <v>-0.001000264434925846</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" x14ac:dyDescent="0.2">
       <c r="A100" s="0">
         <v>0.98000000000000065</v>
       </c>
@@ -1918,7 +2115,7 @@
         <v>-0.00059247701460041235</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" x14ac:dyDescent="0.2">
       <c r="A101" s="0">
         <v>0.99000000000000066</v>
       </c>
@@ -1935,7 +2132,7 @@
         <v>-0.00033246336295267303</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" x14ac:dyDescent="0.2">
       <c r="A102" s="0">
         <v>1.0000000000000007</v>
       </c>
@@ -1952,7 +2149,7 @@
         <v>-0.00019399908897799222</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" x14ac:dyDescent="0.2">
       <c r="A103" s="0">
         <v>1.0100000000000007</v>
       </c>
@@ -1969,7 +2166,7 @@
         <v>-0.00011003929093877927</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" x14ac:dyDescent="0.2">
       <c r="A104" s="0">
         <v>1.0200000000000007</v>
       </c>
@@ -1986,7 +2183,7 @@
         <v>-6.3709175839449348e-05</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" x14ac:dyDescent="0.2">
       <c r="A105" s="0">
         <v>1.0300000000000007</v>
       </c>
@@ -2003,7 +2200,7 @@
         <v>-3.6341647778881435e-05</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" x14ac:dyDescent="0.2">
       <c r="A106" s="0">
         <v>1.0400000000000007</v>
       </c>
@@ -2020,7 +2217,7 @@
         <v>-2.0954491172453556e-05</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" x14ac:dyDescent="0.2">
       <c r="A107" s="0">
         <v>1.0500000000000007</v>
       </c>
@@ -2037,7 +2234,7 @@
         <v>-1.1988572889060099e-05</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" x14ac:dyDescent="0.2">
       <c r="A108" s="0">
         <v>1.0600000000000007</v>
       </c>
@@ -2054,7 +2251,7 @@
         <v>-6.8977325576036316e-06</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" x14ac:dyDescent="0.2">
       <c r="A109" s="0">
         <v>1.0700000000000007</v>
       </c>
@@ -2071,7 +2268,7 @@
         <v>-3.9525020421038296e-06</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" x14ac:dyDescent="0.2">
       <c r="A110" s="0">
         <v>1.0800000000000007</v>
       </c>
@@ -2088,7 +2285,7 @@
         <v>-2.2715463519895652e-06</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" x14ac:dyDescent="0.2">
       <c r="A111" s="0">
         <v>1.0900000000000007</v>
       </c>
@@ -2105,7 +2302,7 @@
         <v>-1.3026913014967123e-06</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" x14ac:dyDescent="0.2">
       <c r="A112" s="0">
         <v>1.1000000000000008</v>
       </c>
@@ -2122,7 +2319,7 @@
         <v>-7.4822890905323426e-07</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" x14ac:dyDescent="0.2">
       <c r="A113" s="0">
         <v>1.1100000000000008</v>
       </c>
@@ -2139,7 +2336,7 @@
         <v>-4.2927944310376538e-07</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" x14ac:dyDescent="0.2">
       <c r="A114" s="0">
         <v>1.1200000000000008</v>
       </c>
@@ -2156,7 +2353,7 @@
         <v>-2.4648958751871717e-07</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" x14ac:dyDescent="0.2">
       <c r="A115" s="0">
         <v>1.1300000000000008</v>
       </c>
@@ -2173,7 +2370,7 @@
         <v>-1.4144954274543425e-07</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" x14ac:dyDescent="0.2">
       <c r="A116" s="0">
         <v>1.1400000000000008</v>
       </c>
@@ -2190,7 +2387,7 @@
         <v>-8.1206263768951591e-08</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" x14ac:dyDescent="0.2">
       <c r="A117" s="0">
         <v>1.1500000000000008</v>
       </c>
@@ -2207,7 +2404,7 @@
         <v>-4.6606184689301178e-08</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" x14ac:dyDescent="0.2">
       <c r="A118" s="0">
         <v>1.1600000000000008</v>
       </c>
@@ -2224,7 +2421,7 @@
         <v>-2.6754359616630302e-08</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" x14ac:dyDescent="0.2">
       <c r="A119" s="0">
         <v>1.1700000000000008</v>
       </c>
@@ -2241,7 +2438,7 @@
         <v>-1.5355902327475663e-08</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" x14ac:dyDescent="0.2">
       <c r="A120" s="0">
         <v>1.1800000000000008</v>
       </c>
@@ -2258,7 +2455,7 @@
         <v>-8.8146887289308883e-09</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" x14ac:dyDescent="0.2">
       <c r="A121" s="0">
         <v>1.1900000000000008</v>
       </c>
@@ -2275,7 +2472,7 @@
         <v>-5.0594327338782191e-09</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" x14ac:dyDescent="0.2">
       <c r="A122" s="0">
         <v>1.2000000000000008</v>
       </c>
@@ -2292,7 +2489,7 @@
         <v>-2.9041787585892869e-09</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" x14ac:dyDescent="0.2">
       <c r="A123" s="0">
         <v>1.2100000000000009</v>
       </c>
@@ -2309,7 +2506,7 @@
         <v>-1.6669597646679109e-09</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" x14ac:dyDescent="0.2">
       <c r="A124" s="0">
         <v>1.2200000000000009</v>
       </c>
@@ -2326,7 +2523,7 @@
         <v>-9.5684543621743666e-10</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" x14ac:dyDescent="0.2">
       <c r="A125" s="0">
         <v>1.2300000000000009</v>
       </c>
@@ -2343,7 +2540,7 @@
         <v>-5.4922186243366949e-10</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" x14ac:dyDescent="0.2">
       <c r="A126" s="0">
         <v>1.2400000000000009</v>
       </c>
@@ -2360,7 +2557,7 @@
         <v>-3.1525465571391516e-10</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" x14ac:dyDescent="0.2">
       <c r="A127" s="0">
         <v>1.2500000000000009</v>
       </c>
@@ -2377,7 +2574,7 @@
         <v>-1.8095480668088155e-10</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" x14ac:dyDescent="0.2">
       <c r="A128" s="0">
         <v>1.2600000000000009</v>
       </c>
@@ -2394,7 +2591,7 @@
         <v>-1.0386802530201405e-10</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" x14ac:dyDescent="0.2">
       <c r="A129" s="0">
         <v>1.2700000000000009</v>
       </c>
@@ -2411,7 +2608,7 @@
         <v>-5.96202254232737e-11</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" x14ac:dyDescent="0.2">
       <c r="A130" s="0">
         <v>1.2800000000000009</v>
       </c>
@@ -2428,7 +2625,7 @@
         <v>-3.4222652489646118e-11</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" x14ac:dyDescent="0.2">
       <c r="A131" s="0">
         <v>1.2900000000000009</v>
       </c>
@@ -2445,7 +2642,7 @@
         <v>-1.9642870663361155e-11</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" x14ac:dyDescent="0.2">
       <c r="A132" s="0">
         <v>1.3000000000000009</v>
       </c>
@@ -2462,7 +2659,7 @@
         <v>-1.1274869926580797e-11</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" x14ac:dyDescent="0.2">
       <c r="A133" s="0">
         <v>1.3100000000000009</v>
       </c>
@@ -2479,7 +2676,7 @@
         <v>-6.4714622549644332e-12</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" x14ac:dyDescent="0.2">
       <c r="A134" s="0">
         <v>1.320000000000001</v>
       </c>
@@ -2496,7 +2693,7 @@
         <v>-3.7150560405763201e-12</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" x14ac:dyDescent="0.2">
       <c r="A135" s="0">
         <v>1.330000000000001</v>
       </c>
@@ -2513,7 +2710,7 @@
         <v>-2.1325163475455481e-12</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" x14ac:dyDescent="0.2">
       <c r="A136" s="0">
         <v>1.340000000000001</v>
       </c>
@@ -2530,7 +2727,7 @@
         <v>-1.2236323065906183e-12</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" x14ac:dyDescent="0.2">
       <c r="A137" s="0">
         <v>1.350000000000001</v>
       </c>
@@ -2547,7 +2744,7 @@
         <v>-7.0266015228526279e-13</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" x14ac:dyDescent="0.2">
       <c r="A138" s="0">
         <v>1.360000000000001</v>
       </c>
@@ -2564,7 +2761,7 @@
         <v>-4.0412117026649325e-13</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" x14ac:dyDescent="0.2">
       <c r="A139" s="0">
         <v>1.370000000000001</v>
       </c>
@@ -2581,7 +2778,7 @@
         <v>-2.3181453731479161e-13</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" x14ac:dyDescent="0.2">
       <c r="A140" s="0">
         <v>1.380000000000001</v>
       </c>
@@ -2598,7 +2795,7 @@
         <v>-1.3283818489640018e-13</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" x14ac:dyDescent="0.2">
       <c r="A141" s="0">
         <v>1.390000000000001</v>
       </c>
@@ -2615,7 +2812,7 @@
         <v>-7.5495154593435341e-14</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" x14ac:dyDescent="0.2">
       <c r="A142" s="0">
         <v>1.400000000000001</v>
       </c>
@@ -2632,7 +2829,7 @@
         <v>-4.352073688392529e-14</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" x14ac:dyDescent="0.2">
       <c r="A143" s="0">
         <v>1.410000000000001</v>
       </c>
@@ -2649,7 +2846,7 @@
         <v>-2.4369395390522224e-14</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" x14ac:dyDescent="0.2">
       <c r="A144" s="0">
         <v>1.420000000000001</v>
       </c>
@@ -2666,7 +2863,7 @@
         <v>-1.3794521080967595e-14</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" x14ac:dyDescent="0.2">
       <c r="A145" s="0">
         <v>1.430000000000001</v>
       </c>
@@ -2683,7 +2880,7 @@
         <v>-7.9936075303573948e-15</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" x14ac:dyDescent="0.2">
       <c r="A146" s="0">
         <v>1.4400000000000011</v>
       </c>
@@ -2700,7 +2897,7 @@
         <v>-4.4409660110807008e-15</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" x14ac:dyDescent="0.2">
       <c r="A147" s="0">
         <v>1.4500000000000011</v>
       </c>
@@ -2717,7 +2914,7 @@
         <v>-2.6645623826503017e-15</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" x14ac:dyDescent="0.2">
       <c r="A148" s="0">
         <v>1.4600000000000011</v>
       </c>
@@ -2734,7 +2931,7 @@
         <v>-8.8828749827255923e-16</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" x14ac:dyDescent="0.2">
       <c r="A149" s="0">
         <v>1.4700000000000011</v>
       </c>
@@ -2751,7 +2948,7 @@
         <v>3.0531133177191608e-16</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" x14ac:dyDescent="0.2">
       <c r="A150" s="0">
         <v>1.4800000000000011</v>
       </c>
@@ -2768,7 +2965,7 @@
         <v>-8.881783990206109e-16</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" x14ac:dyDescent="0.2">
       <c r="A151" s="0">
         <v>1.4900000000000011</v>
       </c>
@@ -2785,7 +2982,7 @@
         <v>-8.8817839323034681e-16</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" x14ac:dyDescent="0.2">
       <c r="A152" s="0">
         <v>1.5000000000000011</v>
       </c>
@@ -2802,7 +2999,7 @@
         <v>8.8818509478181787e-16</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" x14ac:dyDescent="0.2">
       <c r="A153" s="0">
         <v>1.5100000000000011</v>
       </c>
@@ -2819,7 +3016,7 @@
         <v>-8.8817841970012504e-16</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" x14ac:dyDescent="0.2">
       <c r="A154" s="0">
         <v>1.5200000000000011</v>
       </c>
@@ -2836,7 +3033,7 @@
         <v>8.8817841970012444e-16</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" x14ac:dyDescent="0.2">
       <c r="A155" s="0">
         <v>1.5300000000000011</v>
       </c>
@@ -2853,7 +3050,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" x14ac:dyDescent="0.2">
       <c r="A156" s="0">
         <v>1.5400000000000011</v>
       </c>
@@ -2870,7 +3067,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" x14ac:dyDescent="0.2">
       <c r="A157" s="0">
         <v>1.5500000000000012</v>
       </c>
@@ -2887,7 +3084,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" x14ac:dyDescent="0.2">
       <c r="A158" s="0">
         <v>1.5600000000000012</v>
       </c>
@@ -2904,7 +3101,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" x14ac:dyDescent="0.2">
       <c r="A159" s="0">
         <v>1.5700000000000012</v>
       </c>
@@ -2921,7 +3118,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" x14ac:dyDescent="0.2">
       <c r="A160" s="0">
         <v>1.5800000000000012</v>
       </c>
@@ -2938,7 +3135,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" x14ac:dyDescent="0.2">
       <c r="A161" s="0">
         <v>1.5900000000000012</v>
       </c>
@@ -2955,7 +3152,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" x14ac:dyDescent="0.2">
       <c r="A162" s="0">
         <v>1.6000000000000012</v>
       </c>
@@ -2972,7 +3169,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" x14ac:dyDescent="0.2">
       <c r="A163" s="0">
         <v>1.6100000000000012</v>
       </c>
@@ -2989,7 +3186,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" x14ac:dyDescent="0.2">
       <c r="A164" s="0">
         <v>1.6200000000000012</v>
       </c>
@@ -3006,7 +3203,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" x14ac:dyDescent="0.2">
       <c r="A165" s="0">
         <v>1.6300000000000012</v>
       </c>
@@ -3023,7 +3220,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" x14ac:dyDescent="0.2">
       <c r="A166" s="0">
         <v>1.6400000000000012</v>
       </c>
@@ -3040,7 +3237,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" x14ac:dyDescent="0.2">
       <c r="A167" s="0">
         <v>1.6500000000000012</v>
       </c>
@@ -3057,7 +3254,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" x14ac:dyDescent="0.2">
       <c r="A168" s="0">
         <v>1.6600000000000013</v>
       </c>
@@ -3074,7 +3271,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" x14ac:dyDescent="0.2">
       <c r="A169" s="0">
         <v>1.6700000000000013</v>
       </c>
@@ -3091,7 +3288,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" x14ac:dyDescent="0.2">
       <c r="A170" s="0">
         <v>1.6800000000000013</v>
       </c>
@@ -3108,7 +3305,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" x14ac:dyDescent="0.2">
       <c r="A171" s="0">
         <v>1.6900000000000013</v>
       </c>
@@ -3125,7 +3322,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" x14ac:dyDescent="0.2">
       <c r="A172" s="0">
         <v>1.7000000000000013</v>
       </c>
@@ -3142,7 +3339,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" x14ac:dyDescent="0.2">
       <c r="A173" s="0">
         <v>1.7100000000000013</v>
       </c>
@@ -3159,7 +3356,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" x14ac:dyDescent="0.2">
       <c r="A174" s="0">
         <v>1.7200000000000013</v>
       </c>
@@ -3176,7 +3373,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" x14ac:dyDescent="0.2">
       <c r="A175" s="0">
         <v>1.7300000000000013</v>
       </c>
@@ -3193,7 +3390,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" x14ac:dyDescent="0.2">
       <c r="A176" s="0">
         <v>1.7400000000000013</v>
       </c>
@@ -3210,7 +3407,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" x14ac:dyDescent="0.2">
       <c r="A177" s="0">
         <v>1.7500000000000013</v>
       </c>
@@ -3227,7 +3424,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" x14ac:dyDescent="0.2">
       <c r="A178" s="0">
         <v>1.7600000000000013</v>
       </c>
@@ -3244,7 +3441,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" x14ac:dyDescent="0.2">
       <c r="A179" s="0">
         <v>1.7700000000000014</v>
       </c>
@@ -3261,7 +3458,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" x14ac:dyDescent="0.2">
       <c r="A180" s="0">
         <v>1.7800000000000014</v>
       </c>
@@ -3278,7 +3475,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" x14ac:dyDescent="0.2">
       <c r="A181" s="0">
         <v>1.7900000000000014</v>
       </c>
@@ -3295,7 +3492,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" x14ac:dyDescent="0.2">
       <c r="A182" s="0">
         <v>1.8000000000000014</v>
       </c>
@@ -3312,7 +3509,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" x14ac:dyDescent="0.2">
       <c r="A183" s="0">
         <v>1.8100000000000014</v>
       </c>
@@ -3329,7 +3526,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" x14ac:dyDescent="0.2">
       <c r="A184" s="0">
         <v>1.8200000000000014</v>
       </c>
@@ -3346,7 +3543,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" x14ac:dyDescent="0.2">
       <c r="A185" s="0">
         <v>1.8300000000000014</v>
       </c>
@@ -3363,7 +3560,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" x14ac:dyDescent="0.2">
       <c r="A186" s="0">
         <v>1.8400000000000014</v>
       </c>
@@ -3380,7 +3577,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" x14ac:dyDescent="0.2">
       <c r="A187" s="0">
         <v>1.8500000000000014</v>
       </c>
@@ -3397,7 +3594,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" x14ac:dyDescent="0.2">
       <c r="A188" s="0">
         <v>1.8600000000000014</v>
       </c>
@@ -3414,7 +3611,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" x14ac:dyDescent="0.2">
       <c r="A189" s="0">
         <v>1.8700000000000014</v>
       </c>
@@ -3431,7 +3628,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" x14ac:dyDescent="0.2">
       <c r="A190" s="0">
         <v>1.8800000000000014</v>
       </c>
@@ -3448,7 +3645,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" x14ac:dyDescent="0.2">
       <c r="A191" s="0">
         <v>1.8900000000000015</v>
       </c>
@@ -3465,7 +3662,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" x14ac:dyDescent="0.2">
       <c r="A192" s="0">
         <v>1.9000000000000015</v>
       </c>
@@ -3482,7 +3679,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" x14ac:dyDescent="0.2">
       <c r="A193" s="0">
         <v>1.9100000000000015</v>
       </c>
@@ -3499,7 +3696,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" x14ac:dyDescent="0.2">
       <c r="A194" s="0">
         <v>1.9200000000000015</v>
       </c>
@@ -3516,7 +3713,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" x14ac:dyDescent="0.2">
       <c r="A195" s="0">
         <v>1.9300000000000015</v>
       </c>
@@ -3533,7 +3730,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" x14ac:dyDescent="0.2">
       <c r="A196" s="0">
         <v>1.9400000000000015</v>
       </c>
@@ -3550,7 +3747,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" x14ac:dyDescent="0.2">
       <c r="A197" s="0">
         <v>1.9500000000000015</v>
       </c>
@@ -3567,7 +3764,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" x14ac:dyDescent="0.2">
       <c r="A198" s="0">
         <v>1.9600000000000015</v>
       </c>
@@ -3584,7 +3781,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" x14ac:dyDescent="0.2">
       <c r="A199" s="0">
         <v>1.9700000000000015</v>
       </c>
@@ -3601,7 +3798,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" x14ac:dyDescent="0.2">
       <c r="A200" s="0">
         <v>1.9800000000000015</v>
       </c>
@@ -3618,7 +3815,7 @@
         <v>1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" x14ac:dyDescent="0.2">
       <c r="A201" s="0">
         <v>1.9900000000000015</v>
       </c>
@@ -3635,7 +3832,7 @@
         <v>-1.9428902930940299e-16</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" x14ac:dyDescent="0.2">
       <c r="A202" s="0">
         <v>2.0000000000000013</v>
       </c>
@@ -3652,7 +3849,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" x14ac:dyDescent="0.2">
       <c r="A203" s="0">
         <v>2.0100000000000011</v>
       </c>
@@ -3669,7 +3866,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" x14ac:dyDescent="0.2">
       <c r="A204" s="0">
         <v>2.0200000000000009</v>
       </c>
@@ -3686,7 +3883,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" x14ac:dyDescent="0.2">
       <c r="A205" s="0">
         <v>2.0300000000000007</v>
       </c>
@@ -3703,7 +3900,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" x14ac:dyDescent="0.2">
       <c r="A206" s="0">
         <v>2.0400000000000005</v>
       </c>
@@ -3720,7 +3917,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" x14ac:dyDescent="0.2">
       <c r="A207" s="0">
         <v>2.0500000000000003</v>
       </c>
@@ -3737,7 +3934,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" x14ac:dyDescent="0.2">
       <c r="A208" s="0">
         <v>2.0600000000000001</v>
       </c>
@@ -3754,7 +3951,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" x14ac:dyDescent="0.2">
       <c r="A209" s="0">
         <v>2.0699999999999998</v>
       </c>
@@ -3771,7 +3968,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" x14ac:dyDescent="0.2">
       <c r="A210" s="0">
         <v>2.0799999999999996</v>
       </c>
@@ -3788,7 +3985,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" x14ac:dyDescent="0.2">
       <c r="A211" s="0">
         <v>2.0899999999999994</v>
       </c>
@@ -3805,7 +4002,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" x14ac:dyDescent="0.2">
       <c r="A212" s="0">
         <v>2.0999999999999992</v>
       </c>
@@ -3822,7 +4019,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" x14ac:dyDescent="0.2">
       <c r="A213" s="0">
         <v>2.109999999999999</v>
       </c>
@@ -3839,7 +4036,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" x14ac:dyDescent="0.2">
       <c r="A214" s="0">
         <v>2.1199999999999988</v>
       </c>
@@ -3856,7 +4053,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" x14ac:dyDescent="0.2">
       <c r="A215" s="0">
         <v>2.1299999999999986</v>
       </c>
@@ -3873,7 +4070,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" x14ac:dyDescent="0.2">
       <c r="A216" s="0">
         <v>2.1399999999999983</v>
       </c>
@@ -3890,7 +4087,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" x14ac:dyDescent="0.2">
       <c r="A217" s="0">
         <v>2.1499999999999981</v>
       </c>
@@ -3907,7 +4104,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" x14ac:dyDescent="0.2">
       <c r="A218" s="0">
         <v>2.1599999999999979</v>
       </c>
@@ -3924,7 +4121,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" x14ac:dyDescent="0.2">
       <c r="A219" s="0">
         <v>2.1699999999999977</v>
       </c>
@@ -3941,7 +4138,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" x14ac:dyDescent="0.2">
       <c r="A220" s="0">
         <v>2.1799999999999975</v>
       </c>
@@ -3958,7 +4155,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" x14ac:dyDescent="0.2">
       <c r="A221" s="0">
         <v>2.1899999999999973</v>
       </c>
@@ -3975,7 +4172,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" x14ac:dyDescent="0.2">
       <c r="A222" s="0">
         <v>2.1999999999999971</v>
       </c>
@@ -3992,7 +4189,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" x14ac:dyDescent="0.2">
       <c r="A223" s="0">
         <v>2.2099999999999969</v>
       </c>
@@ -4009,7 +4206,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" x14ac:dyDescent="0.2">
       <c r="A224" s="0">
         <v>2.2199999999999966</v>
       </c>
@@ -4026,7 +4223,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" x14ac:dyDescent="0.2">
       <c r="A225" s="0">
         <v>2.2299999999999964</v>
       </c>
@@ -4043,7 +4240,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" x14ac:dyDescent="0.2">
       <c r="A226" s="0">
         <v>2.2399999999999962</v>
       </c>
@@ -4060,7 +4257,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" x14ac:dyDescent="0.2">
       <c r="A227" s="0">
         <v>2.249999999999996</v>
       </c>
@@ -4077,7 +4274,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" x14ac:dyDescent="0.2">
       <c r="A228" s="0">
         <v>2.2599999999999958</v>
       </c>
@@ -4094,7 +4291,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" x14ac:dyDescent="0.2">
       <c r="A229" s="0">
         <v>2.2699999999999956</v>
       </c>
@@ -4111,7 +4308,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" x14ac:dyDescent="0.2">
       <c r="A230" s="0">
         <v>2.2799999999999954</v>
       </c>
@@ -4128,7 +4325,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" x14ac:dyDescent="0.2">
       <c r="A231" s="0">
         <v>2.2899999999999952</v>
       </c>
@@ -4145,7 +4342,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" x14ac:dyDescent="0.2">
       <c r="A232" s="0">
         <v>2.2999999999999949</v>
       </c>
@@ -4162,7 +4359,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" x14ac:dyDescent="0.2">
       <c r="A233" s="0">
         <v>2.3099999999999947</v>
       </c>
@@ -4179,7 +4376,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" x14ac:dyDescent="0.2">
       <c r="A234" s="0">
         <v>2.3199999999999945</v>
       </c>
@@ -4196,7 +4393,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" x14ac:dyDescent="0.2">
       <c r="A235" s="0">
         <v>2.3299999999999943</v>
       </c>
@@ -4213,7 +4410,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" x14ac:dyDescent="0.2">
       <c r="A236" s="0">
         <v>2.3399999999999941</v>
       </c>
@@ -4230,7 +4427,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" x14ac:dyDescent="0.2">
       <c r="A237" s="0">
         <v>2.3499999999999939</v>
       </c>
@@ -4247,7 +4444,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" x14ac:dyDescent="0.2">
       <c r="A238" s="0">
         <v>2.3599999999999937</v>
       </c>
@@ -4264,7 +4461,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" x14ac:dyDescent="0.2">
       <c r="A239" s="0">
         <v>2.3699999999999934</v>
       </c>
@@ -4281,7 +4478,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" x14ac:dyDescent="0.2">
       <c r="A240" s="0">
         <v>2.3799999999999932</v>
       </c>
@@ -4298,7 +4495,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" x14ac:dyDescent="0.2">
       <c r="A241" s="0">
         <v>2.389999999999993</v>
       </c>
@@ -4315,7 +4512,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" x14ac:dyDescent="0.2">
       <c r="A242" s="0">
         <v>2.3999999999999928</v>
       </c>
@@ -4332,7 +4529,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" x14ac:dyDescent="0.2">
       <c r="A243" s="0">
         <v>2.4099999999999926</v>
       </c>
@@ -4349,7 +4546,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" x14ac:dyDescent="0.2">
       <c r="A244" s="0">
         <v>2.4199999999999924</v>
       </c>
@@ -4366,7 +4563,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" x14ac:dyDescent="0.2">
       <c r="A245" s="0">
         <v>2.4299999999999922</v>
       </c>
@@ -4383,7 +4580,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" x14ac:dyDescent="0.2">
       <c r="A246" s="0">
         <v>2.439999999999992</v>
       </c>
@@ -4400,7 +4597,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" x14ac:dyDescent="0.2">
       <c r="A247" s="0">
         <v>2.4499999999999917</v>
       </c>
@@ -4417,7 +4614,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" x14ac:dyDescent="0.2">
       <c r="A248" s="0">
         <v>2.4599999999999915</v>
       </c>
@@ -4434,7 +4631,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" x14ac:dyDescent="0.2">
       <c r="A249" s="0">
         <v>2.4699999999999913</v>
       </c>
@@ -4451,7 +4648,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" x14ac:dyDescent="0.2">
       <c r="A250" s="0">
         <v>2.4799999999999911</v>
       </c>
@@ -4468,7 +4665,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" x14ac:dyDescent="0.2">
       <c r="A251" s="0">
         <v>2.4899999999999909</v>
       </c>
@@ -4485,7 +4682,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" x14ac:dyDescent="0.2">
       <c r="A252" s="0">
         <v>2.4999999999999907</v>
       </c>
@@ -4502,7 +4699,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" x14ac:dyDescent="0.2">
       <c r="A253" s="0">
         <v>2.5099999999999905</v>
       </c>
@@ -4519,7 +4716,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" x14ac:dyDescent="0.2">
       <c r="A254" s="0">
         <v>2.5199999999999902</v>
       </c>
@@ -4536,7 +4733,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" x14ac:dyDescent="0.2">
       <c r="A255" s="0">
         <v>2.52999999999999</v>
       </c>
@@ -4553,7 +4750,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" x14ac:dyDescent="0.2">
       <c r="A256" s="0">
         <v>2.5399999999999898</v>
       </c>
@@ -4570,7 +4767,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" x14ac:dyDescent="0.2">
       <c r="A257" s="0">
         <v>2.5499999999999896</v>
       </c>
@@ -4587,7 +4784,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" x14ac:dyDescent="0.2">
       <c r="A258" s="0">
         <v>2.5599999999999894</v>
       </c>
@@ -4604,7 +4801,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" x14ac:dyDescent="0.2">
       <c r="A259" s="0">
         <v>2.5699999999999892</v>
       </c>
@@ -4621,7 +4818,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" x14ac:dyDescent="0.2">
       <c r="A260" s="0">
         <v>2.579999999999989</v>
       </c>
@@ -4638,7 +4835,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" x14ac:dyDescent="0.2">
       <c r="A261" s="0">
         <v>2.5899999999999888</v>
       </c>
@@ -4655,7 +4852,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" x14ac:dyDescent="0.2">
       <c r="A262" s="0">
         <v>2.5999999999999885</v>
       </c>
@@ -4672,7 +4869,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" x14ac:dyDescent="0.2">
       <c r="A263" s="0">
         <v>2.6099999999999883</v>
       </c>
@@ -4689,7 +4886,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" x14ac:dyDescent="0.2">
       <c r="A264" s="0">
         <v>2.6199999999999881</v>
       </c>
@@ -4706,7 +4903,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" x14ac:dyDescent="0.2">
       <c r="A265" s="0">
         <v>2.6299999999999879</v>
       </c>
@@ -4723,7 +4920,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" x14ac:dyDescent="0.2">
       <c r="A266" s="0">
         <v>2.6399999999999877</v>
       </c>
@@ -4740,7 +4937,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" x14ac:dyDescent="0.2">
       <c r="A267" s="0">
         <v>2.6499999999999875</v>
       </c>
@@ -4757,7 +4954,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" x14ac:dyDescent="0.2">
       <c r="A268" s="0">
         <v>2.6599999999999873</v>
       </c>
@@ -4774,7 +4971,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" x14ac:dyDescent="0.2">
       <c r="A269" s="0">
         <v>2.6699999999999871</v>
       </c>
@@ -4791,7 +4988,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" x14ac:dyDescent="0.2">
       <c r="A270" s="0">
         <v>2.6799999999999868</v>
       </c>
@@ -4808,7 +5005,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" x14ac:dyDescent="0.2">
       <c r="A271" s="0">
         <v>2.6899999999999866</v>
       </c>
@@ -4825,7 +5022,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" x14ac:dyDescent="0.2">
       <c r="A272" s="0">
         <v>2.6999999999999864</v>
       </c>
@@ -4842,7 +5039,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" x14ac:dyDescent="0.2">
       <c r="A273" s="0">
         <v>2.7099999999999862</v>
       </c>
@@ -4859,7 +5056,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" x14ac:dyDescent="0.2">
       <c r="A274" s="0">
         <v>2.719999999999986</v>
       </c>
@@ -4876,7 +5073,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" x14ac:dyDescent="0.2">
       <c r="A275" s="0">
         <v>2.7299999999999858</v>
       </c>
@@ -4893,7 +5090,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" x14ac:dyDescent="0.2">
       <c r="A276" s="0">
         <v>2.7399999999999856</v>
       </c>
@@ -4910,7 +5107,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" x14ac:dyDescent="0.2">
       <c r="A277" s="0">
         <v>2.7499999999999853</v>
       </c>
@@ -4927,7 +5124,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" x14ac:dyDescent="0.2">
       <c r="A278" s="0">
         <v>2.7599999999999851</v>
       </c>
@@ -4944,7 +5141,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" x14ac:dyDescent="0.2">
       <c r="A279" s="0">
         <v>2.7699999999999849</v>
       </c>
@@ -4961,7 +5158,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" x14ac:dyDescent="0.2">
       <c r="A280" s="0">
         <v>2.7799999999999847</v>
       </c>
@@ -4978,7 +5175,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" x14ac:dyDescent="0.2">
       <c r="A281" s="0">
         <v>2.7899999999999845</v>
       </c>
@@ -4995,7 +5192,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" x14ac:dyDescent="0.2">
       <c r="A282" s="0">
         <v>2.7999999999999843</v>
       </c>
@@ -5012,7 +5209,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" x14ac:dyDescent="0.2">
       <c r="A283" s="0">
         <v>2.8099999999999841</v>
       </c>
@@ -5029,7 +5226,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" x14ac:dyDescent="0.2">
       <c r="A284" s="0">
         <v>2.8199999999999839</v>
       </c>
@@ -5046,7 +5243,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" x14ac:dyDescent="0.2">
       <c r="A285" s="0">
         <v>2.8299999999999836</v>
       </c>
@@ -5063,7 +5260,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" x14ac:dyDescent="0.2">
       <c r="A286" s="0">
         <v>2.8399999999999834</v>
       </c>
@@ -5080,7 +5277,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" x14ac:dyDescent="0.2">
       <c r="A287" s="0">
         <v>2.8499999999999832</v>
       </c>
@@ -5097,7 +5294,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" x14ac:dyDescent="0.2">
       <c r="A288" s="0">
         <v>2.859999999999983</v>
       </c>
@@ -5114,7 +5311,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" x14ac:dyDescent="0.2">
       <c r="A289" s="0">
         <v>2.8699999999999828</v>
       </c>
@@ -5131,7 +5328,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" x14ac:dyDescent="0.2">
       <c r="A290" s="0">
         <v>2.8799999999999826</v>
       </c>
@@ -5148,7 +5345,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" x14ac:dyDescent="0.2">
       <c r="A291" s="0">
         <v>2.8899999999999824</v>
       </c>
@@ -5165,7 +5362,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" x14ac:dyDescent="0.2">
       <c r="A292" s="0">
         <v>2.8999999999999821</v>
       </c>
@@ -5182,7 +5379,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" x14ac:dyDescent="0.2">
       <c r="A293" s="0">
         <v>2.9099999999999819</v>
       </c>
@@ -5199,7 +5396,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" x14ac:dyDescent="0.2">
       <c r="A294" s="0">
         <v>2.9199999999999817</v>
       </c>
@@ -5216,7 +5413,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" x14ac:dyDescent="0.2">
       <c r="A295" s="0">
         <v>2.9299999999999815</v>
       </c>
@@ -5233,7 +5430,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" x14ac:dyDescent="0.2">
       <c r="A296" s="0">
         <v>2.9399999999999813</v>
       </c>
@@ -5250,7 +5447,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" x14ac:dyDescent="0.2">
       <c r="A297" s="0">
         <v>2.9499999999999811</v>
       </c>
@@ -5267,7 +5464,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" x14ac:dyDescent="0.2">
       <c r="A298" s="0">
         <v>2.9599999999999809</v>
       </c>
@@ -5284,7 +5481,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" x14ac:dyDescent="0.2">
       <c r="A299" s="0">
         <v>2.9699999999999807</v>
       </c>
@@ -5301,7 +5498,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" x14ac:dyDescent="0.2">
       <c r="A300" s="0">
         <v>2.9799999999999804</v>
       </c>
@@ -5318,7 +5515,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" x14ac:dyDescent="0.2">
       <c r="A301" s="0">
         <v>2.9899999999999802</v>
       </c>
@@ -5335,7 +5532,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" x14ac:dyDescent="0.2">
       <c r="A302" s="0">
         <v>2.99999999999998</v>
       </c>
@@ -5352,7 +5549,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" x14ac:dyDescent="0.2">
       <c r="A303" s="0">
         <v>3.0099999999999798</v>
       </c>
@@ -5369,7 +5566,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" x14ac:dyDescent="0.2">
       <c r="A304" s="0">
         <v>3.0199999999999796</v>
       </c>
@@ -5386,7 +5583,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" x14ac:dyDescent="0.2">
       <c r="A305" s="0">
         <v>3.0299999999999794</v>
       </c>
@@ -5403,7 +5600,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" x14ac:dyDescent="0.2">
       <c r="A306" s="0">
         <v>3.0399999999999792</v>
       </c>
@@ -5420,7 +5617,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" x14ac:dyDescent="0.2">
       <c r="A307" s="0">
         <v>3.049999999999979</v>
       </c>
@@ -5437,7 +5634,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" x14ac:dyDescent="0.2">
       <c r="A308" s="0">
         <v>3.0599999999999787</v>
       </c>
@@ -5454,7 +5651,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" x14ac:dyDescent="0.2">
       <c r="A309" s="0">
         <v>3.0699999999999785</v>
       </c>
@@ -5471,7 +5668,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" x14ac:dyDescent="0.2">
       <c r="A310" s="0">
         <v>3.0799999999999783</v>
       </c>
@@ -5488,7 +5685,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" x14ac:dyDescent="0.2">
       <c r="A311" s="0">
         <v>3.0899999999999781</v>
       </c>
@@ -5505,7 +5702,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" x14ac:dyDescent="0.2">
       <c r="A312" s="0">
         <v>3.0999999999999779</v>
       </c>
@@ -5522,7 +5719,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" x14ac:dyDescent="0.2">
       <c r="A313" s="0">
         <v>3.1099999999999777</v>
       </c>
@@ -5539,7 +5736,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" x14ac:dyDescent="0.2">
       <c r="A314" s="0">
         <v>3.1199999999999775</v>
       </c>
@@ -5556,7 +5753,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" x14ac:dyDescent="0.2">
       <c r="A315" s="0">
         <v>3.1299999999999772</v>
       </c>
@@ -5573,7 +5770,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" x14ac:dyDescent="0.2">
       <c r="A316" s="0">
         <v>3.139999999999977</v>
       </c>
@@ -5590,7 +5787,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" x14ac:dyDescent="0.2">
       <c r="A317" s="0">
         <v>3.1499999999999768</v>
       </c>
@@ -5607,7 +5804,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" x14ac:dyDescent="0.2">
       <c r="A318" s="0">
         <v>3.1599999999999766</v>
       </c>
@@ -5624,7 +5821,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" x14ac:dyDescent="0.2">
       <c r="A319" s="0">
         <v>3.1699999999999764</v>
       </c>
@@ -5641,7 +5838,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" x14ac:dyDescent="0.2">
       <c r="A320" s="0">
         <v>3.1799999999999762</v>
       </c>
@@ -5658,7 +5855,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" x14ac:dyDescent="0.2">
       <c r="A321" s="0">
         <v>3.189999999999976</v>
       </c>
@@ -5675,7 +5872,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" x14ac:dyDescent="0.2">
       <c r="A322" s="0">
         <v>3.1999999999999758</v>
       </c>
@@ -5692,7 +5889,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" x14ac:dyDescent="0.2">
       <c r="A323" s="0">
         <v>3.2099999999999755</v>
       </c>
@@ -5709,7 +5906,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" x14ac:dyDescent="0.2">
       <c r="A324" s="0">
         <v>3.2199999999999753</v>
       </c>
@@ -5726,7 +5923,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" x14ac:dyDescent="0.2">
       <c r="A325" s="0">
         <v>3.2299999999999751</v>
       </c>
@@ -5743,7 +5940,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" x14ac:dyDescent="0.2">
       <c r="A326" s="0">
         <v>3.2399999999999749</v>
       </c>
@@ -5760,7 +5957,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" x14ac:dyDescent="0.2">
       <c r="A327" s="0">
         <v>3.2499999999999747</v>
       </c>
@@ -5777,7 +5974,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" x14ac:dyDescent="0.2">
       <c r="A328" s="0">
         <v>3.2599999999999745</v>
       </c>
@@ -5794,7 +5991,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" x14ac:dyDescent="0.2">
       <c r="A329" s="0">
         <v>3.2699999999999743</v>
       </c>
@@ -5811,7 +6008,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" x14ac:dyDescent="0.2">
       <c r="A330" s="0">
         <v>3.279999999999974</v>
       </c>
@@ -5828,7 +6025,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" x14ac:dyDescent="0.2">
       <c r="A331" s="0">
         <v>3.2899999999999738</v>
       </c>
@@ -5845,7 +6042,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" x14ac:dyDescent="0.2">
       <c r="A332" s="0">
         <v>3.2999999999999736</v>
       </c>
@@ -5862,7 +6059,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" x14ac:dyDescent="0.2">
       <c r="A333" s="0">
         <v>3.3099999999999734</v>
       </c>
@@ -5879,7 +6076,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" x14ac:dyDescent="0.2">
       <c r="A334" s="0">
         <v>3.3199999999999732</v>
       </c>
@@ -5896,7 +6093,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" x14ac:dyDescent="0.2">
       <c r="A335" s="0">
         <v>3.329999999999973</v>
       </c>
@@ -5913,7 +6110,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" x14ac:dyDescent="0.2">
       <c r="A336" s="0">
         <v>3.3399999999999728</v>
       </c>
@@ -5930,7 +6127,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" x14ac:dyDescent="0.2">
       <c r="A337" s="0">
         <v>3.3499999999999726</v>
       </c>
@@ -5947,7 +6144,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" x14ac:dyDescent="0.2">
       <c r="A338" s="0">
         <v>3.3599999999999723</v>
       </c>
@@ -5964,7 +6161,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" x14ac:dyDescent="0.2">
       <c r="A339" s="0">
         <v>3.3699999999999721</v>
       </c>
@@ -5981,7 +6178,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" x14ac:dyDescent="0.2">
       <c r="A340" s="0">
         <v>3.3799999999999719</v>
       </c>
@@ -5998,7 +6195,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" x14ac:dyDescent="0.2">
       <c r="A341" s="0">
         <v>3.3899999999999717</v>
       </c>
@@ -6015,7 +6212,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" x14ac:dyDescent="0.2">
       <c r="A342" s="0">
         <v>3.3999999999999715</v>
       </c>
@@ -6032,7 +6229,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" x14ac:dyDescent="0.2">
       <c r="A343" s="0">
         <v>3.4099999999999713</v>
       </c>
@@ -6049,7 +6246,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" x14ac:dyDescent="0.2">
       <c r="A344" s="0">
         <v>3.4199999999999711</v>
       </c>
@@ -6066,7 +6263,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" x14ac:dyDescent="0.2">
       <c r="A345" s="0">
         <v>3.4299999999999708</v>
       </c>
@@ -6083,7 +6280,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" x14ac:dyDescent="0.2">
       <c r="A346" s="0">
         <v>3.4399999999999706</v>
       </c>
@@ -6100,7 +6297,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" x14ac:dyDescent="0.2">
       <c r="A347" s="0">
         <v>3.4499999999999704</v>
       </c>
@@ -6117,7 +6314,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" x14ac:dyDescent="0.2">
       <c r="A348" s="0">
         <v>3.4599999999999702</v>
       </c>
@@ -6134,7 +6331,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" x14ac:dyDescent="0.2">
       <c r="A349" s="0">
         <v>3.46999999999997</v>
       </c>
@@ -6151,7 +6348,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" x14ac:dyDescent="0.2">
       <c r="A350" s="0">
         <v>3.4799999999999698</v>
       </c>
@@ -6168,7 +6365,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" x14ac:dyDescent="0.2">
       <c r="A351" s="0">
         <v>3.4899999999999696</v>
       </c>
@@ -6185,7 +6382,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" x14ac:dyDescent="0.2">
       <c r="A352" s="0">
         <v>3.4999999999999694</v>
       </c>
@@ -6202,7 +6399,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" x14ac:dyDescent="0.2">
       <c r="A353" s="0">
         <v>3.5099999999999691</v>
       </c>
@@ -6219,7 +6416,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" x14ac:dyDescent="0.2">
       <c r="A354" s="0">
         <v>3.5199999999999689</v>
       </c>
@@ -6236,7 +6433,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" x14ac:dyDescent="0.2">
       <c r="A355" s="0">
         <v>3.5299999999999687</v>
       </c>
@@ -6253,7 +6450,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" x14ac:dyDescent="0.2">
       <c r="A356" s="0">
         <v>3.5399999999999685</v>
       </c>
@@ -6270,7 +6467,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" x14ac:dyDescent="0.2">
       <c r="A357" s="0">
         <v>3.5499999999999683</v>
       </c>
@@ -6287,7 +6484,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" x14ac:dyDescent="0.2">
       <c r="A358" s="0">
         <v>3.5599999999999681</v>
       </c>
@@ -6304,7 +6501,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" x14ac:dyDescent="0.2">
       <c r="A359" s="0">
         <v>3.5699999999999679</v>
       </c>
@@ -6321,7 +6518,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" x14ac:dyDescent="0.2">
       <c r="A360" s="0">
         <v>3.5799999999999677</v>
       </c>
@@ -6338,7 +6535,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" x14ac:dyDescent="0.2">
       <c r="A361" s="0">
         <v>3.5899999999999674</v>
       </c>
@@ -6355,7 +6552,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" x14ac:dyDescent="0.2">
       <c r="A362" s="0">
         <v>3.5999999999999672</v>
       </c>
@@ -6372,7 +6569,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" x14ac:dyDescent="0.2">
       <c r="A363" s="0">
         <v>3.609999999999967</v>
       </c>
@@ -6389,7 +6586,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" x14ac:dyDescent="0.2">
       <c r="A364" s="0">
         <v>3.6199999999999668</v>
       </c>
@@ -6406,7 +6603,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" x14ac:dyDescent="0.2">
       <c r="A365" s="0">
         <v>3.6299999999999666</v>
       </c>
@@ -6423,7 +6620,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" x14ac:dyDescent="0.2">
       <c r="A366" s="0">
         <v>3.6399999999999664</v>
       </c>
@@ -6440,7 +6637,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" x14ac:dyDescent="0.2">
       <c r="A367" s="0">
         <v>3.6499999999999662</v>
       </c>
@@ -6457,7 +6654,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" x14ac:dyDescent="0.2">
       <c r="A368" s="0">
         <v>3.6599999999999659</v>
       </c>
@@ -6474,7 +6671,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" x14ac:dyDescent="0.2">
       <c r="A369" s="0">
         <v>3.6699999999999657</v>
       </c>
@@ -6491,7 +6688,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" x14ac:dyDescent="0.2">
       <c r="A370" s="0">
         <v>3.6799999999999655</v>
       </c>
@@ -6508,7 +6705,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" x14ac:dyDescent="0.2">
       <c r="A371" s="0">
         <v>3.6899999999999653</v>
       </c>
@@ -6525,7 +6722,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" x14ac:dyDescent="0.2">
       <c r="A372" s="0">
         <v>3.6999999999999651</v>
       </c>
@@ -6542,7 +6739,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" x14ac:dyDescent="0.2">
       <c r="A373" s="0">
         <v>3.7099999999999649</v>
       </c>
@@ -6559,7 +6756,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" x14ac:dyDescent="0.2">
       <c r="A374" s="0">
         <v>3.7199999999999647</v>
       </c>
@@ -6576,7 +6773,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" x14ac:dyDescent="0.2">
       <c r="A375" s="0">
         <v>3.7299999999999645</v>
       </c>
@@ -6593,7 +6790,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" x14ac:dyDescent="0.2">
       <c r="A376" s="0">
         <v>3.7399999999999642</v>
       </c>
@@ -6610,7 +6807,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" x14ac:dyDescent="0.2">
       <c r="A377" s="0">
         <v>3.749999999999964</v>
       </c>
@@ -6627,7 +6824,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" x14ac:dyDescent="0.2">
       <c r="A378" s="0">
         <v>3.7599999999999638</v>
       </c>
@@ -6644,7 +6841,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" x14ac:dyDescent="0.2">
       <c r="A379" s="0">
         <v>3.7699999999999636</v>
       </c>
@@ -6661,7 +6858,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" x14ac:dyDescent="0.2">
       <c r="A380" s="0">
         <v>3.7799999999999634</v>
       </c>
@@ -6678,7 +6875,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" x14ac:dyDescent="0.2">
       <c r="A381" s="0">
         <v>3.7899999999999632</v>
       </c>
@@ -6695,7 +6892,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" x14ac:dyDescent="0.2">
       <c r="A382" s="0">
         <v>3.799999999999963</v>
       </c>
@@ -6712,7 +6909,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" x14ac:dyDescent="0.2">
       <c r="A383" s="0">
         <v>3.8099999999999627</v>
       </c>
@@ -6729,7 +6926,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" x14ac:dyDescent="0.2">
       <c r="A384" s="0">
         <v>3.8199999999999625</v>
       </c>
@@ -6746,7 +6943,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" x14ac:dyDescent="0.2">
       <c r="A385" s="0">
         <v>3.8299999999999623</v>
       </c>
@@ -6763,7 +6960,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" x14ac:dyDescent="0.2">
       <c r="A386" s="0">
         <v>3.8399999999999621</v>
       </c>
@@ -6780,7 +6977,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" x14ac:dyDescent="0.2">
       <c r="A387" s="0">
         <v>3.8499999999999619</v>
       </c>
@@ -6797,7 +6994,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" x14ac:dyDescent="0.2">
       <c r="A388" s="0">
         <v>3.8599999999999617</v>
       </c>
@@ -6814,7 +7011,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" x14ac:dyDescent="0.2">
       <c r="A389" s="0">
         <v>3.8699999999999615</v>
       </c>
@@ -6831,7 +7028,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" x14ac:dyDescent="0.2">
       <c r="A390" s="0">
         <v>3.8799999999999613</v>
       </c>
@@ -6848,7 +7045,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" x14ac:dyDescent="0.2">
       <c r="A391" s="0">
         <v>3.889999999999961</v>
       </c>
@@ -6865,7 +7062,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" x14ac:dyDescent="0.2">
       <c r="A392" s="0">
         <v>3.8999999999999608</v>
       </c>
@@ -6882,7 +7079,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" x14ac:dyDescent="0.2">
       <c r="A393" s="0">
         <v>3.9099999999999606</v>
       </c>
@@ -6899,7 +7096,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" x14ac:dyDescent="0.2">
       <c r="A394" s="0">
         <v>3.9199999999999604</v>
       </c>
@@ -6916,7 +7113,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" x14ac:dyDescent="0.2">
       <c r="A395" s="0">
         <v>3.9299999999999602</v>
       </c>
@@ -6933,7 +7130,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" x14ac:dyDescent="0.2">
       <c r="A396" s="0">
         <v>3.93999999999996</v>
       </c>
@@ -6950,7 +7147,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" x14ac:dyDescent="0.2">
       <c r="A397" s="0">
         <v>3.9499999999999598</v>
       </c>
@@ -6967,7 +7164,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" x14ac:dyDescent="0.2">
       <c r="A398" s="0">
         <v>3.9599999999999596</v>
       </c>
@@ -6984,7 +7181,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" x14ac:dyDescent="0.2">
       <c r="A399" s="0">
         <v>3.9699999999999593</v>
       </c>
@@ -7001,7 +7198,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" x14ac:dyDescent="0.2">
       <c r="A400" s="0">
         <v>3.9799999999999591</v>
       </c>
@@ -7018,7 +7215,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" x14ac:dyDescent="0.2">
       <c r="A401" s="0">
         <v>3.9899999999999589</v>
       </c>
@@ -7035,7 +7232,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" x14ac:dyDescent="0.2">
       <c r="A402" s="0">
         <v>3.9999999999999587</v>
       </c>
@@ -7052,7 +7249,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" x14ac:dyDescent="0.2">
       <c r="A403" s="0">
         <v>4.0099999999999589</v>
       </c>
@@ -7069,7 +7266,7 @@
         <v>-1.9428902930941837e-16</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" x14ac:dyDescent="0.2">
       <c r="A404" s="0">
         <v>4.0199999999999587</v>
       </c>
@@ -7086,7 +7283,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" x14ac:dyDescent="0.2">
       <c r="A405" s="0">
         <v>4.0299999999999585</v>
       </c>
@@ -7103,7 +7300,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" x14ac:dyDescent="0.2">
       <c r="A406" s="0">
         <v>4.0399999999999583</v>
       </c>
@@ -7120,7 +7317,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" x14ac:dyDescent="0.2">
       <c r="A407" s="0">
         <v>4.0499999999999581</v>
       </c>
@@ -7137,7 +7334,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" x14ac:dyDescent="0.2">
       <c r="A408" s="0">
         <v>4.0599999999999579</v>
       </c>
@@ -7154,7 +7351,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" x14ac:dyDescent="0.2">
       <c r="A409" s="0">
         <v>4.0699999999999577</v>
       </c>
@@ -7171,7 +7368,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" x14ac:dyDescent="0.2">
       <c r="A410" s="0">
         <v>4.0799999999999574</v>
       </c>
@@ -7188,7 +7385,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" x14ac:dyDescent="0.2">
       <c r="A411" s="0">
         <v>4.0899999999999572</v>
       </c>
@@ -7205,7 +7402,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" x14ac:dyDescent="0.2">
       <c r="A412" s="0">
         <v>4.099999999999957</v>
       </c>
@@ -7222,7 +7419,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" x14ac:dyDescent="0.2">
       <c r="A413" s="0">
         <v>4.1099999999999568</v>
       </c>
@@ -7239,7 +7436,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" x14ac:dyDescent="0.2">
       <c r="A414" s="0">
         <v>4.1199999999999566</v>
       </c>
@@ -7256,7 +7453,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" x14ac:dyDescent="0.2">
       <c r="A415" s="0">
         <v>4.1299999999999564</v>
       </c>
@@ -7273,7 +7470,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" x14ac:dyDescent="0.2">
       <c r="A416" s="0">
         <v>4.1399999999999562</v>
       </c>
@@ -7290,7 +7487,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" x14ac:dyDescent="0.2">
       <c r="A417" s="0">
         <v>4.1499999999999559</v>
       </c>
@@ -7307,7 +7504,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" x14ac:dyDescent="0.2">
       <c r="A418" s="0">
         <v>4.1599999999999557</v>
       </c>
@@ -7324,7 +7521,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" x14ac:dyDescent="0.2">
       <c r="A419" s="0">
         <v>4.1699999999999555</v>
       </c>
@@ -7341,7 +7538,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" x14ac:dyDescent="0.2">
       <c r="A420" s="0">
         <v>4.1799999999999553</v>
       </c>
@@ -7358,7 +7555,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" x14ac:dyDescent="0.2">
       <c r="A421" s="0">
         <v>4.1899999999999551</v>
       </c>
@@ -7375,7 +7572,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" x14ac:dyDescent="0.2">
       <c r="A422" s="0">
         <v>4.1999999999999549</v>
       </c>
@@ -7392,7 +7589,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" x14ac:dyDescent="0.2">
       <c r="A423" s="0">
         <v>4.2099999999999547</v>
       </c>
@@ -7409,7 +7606,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" x14ac:dyDescent="0.2">
       <c r="A424" s="0">
         <v>4.2199999999999545</v>
       </c>
@@ -7426,7 +7623,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" x14ac:dyDescent="0.2">
       <c r="A425" s="0">
         <v>4.2299999999999542</v>
       </c>
@@ -7443,7 +7640,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" x14ac:dyDescent="0.2">
       <c r="A426" s="0">
         <v>4.239999999999954</v>
       </c>
@@ -7460,7 +7657,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" x14ac:dyDescent="0.2">
       <c r="A427" s="0">
         <v>4.2499999999999538</v>
       </c>
@@ -7477,7 +7674,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" x14ac:dyDescent="0.2">
       <c r="A428" s="0">
         <v>4.2599999999999536</v>
       </c>
@@ -7494,7 +7691,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" x14ac:dyDescent="0.2">
       <c r="A429" s="0">
         <v>4.2699999999999534</v>
       </c>
@@ -7511,7 +7708,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" x14ac:dyDescent="0.2">
       <c r="A430" s="0">
         <v>4.2799999999999532</v>
       </c>
@@ -7528,7 +7725,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" x14ac:dyDescent="0.2">
       <c r="A431" s="0">
         <v>4.289999999999953</v>
       </c>
@@ -7545,7 +7742,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" x14ac:dyDescent="0.2">
       <c r="A432" s="0">
         <v>4.2999999999999527</v>
       </c>
@@ -7562,7 +7759,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" x14ac:dyDescent="0.2">
       <c r="A433" s="0">
         <v>4.3099999999999525</v>
       </c>
@@ -7579,7 +7776,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" x14ac:dyDescent="0.2">
       <c r="A434" s="0">
         <v>4.3199999999999523</v>
       </c>
@@ -7596,7 +7793,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" x14ac:dyDescent="0.2">
       <c r="A435" s="0">
         <v>4.3299999999999521</v>
       </c>
@@ -7613,7 +7810,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" x14ac:dyDescent="0.2">
       <c r="A436" s="0">
         <v>4.3399999999999519</v>
       </c>
@@ -7630,7 +7827,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" x14ac:dyDescent="0.2">
       <c r="A437" s="0">
         <v>4.3499999999999517</v>
       </c>
@@ -7647,7 +7844,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" x14ac:dyDescent="0.2">
       <c r="A438" s="0">
         <v>4.3599999999999515</v>
       </c>
@@ -7664,7 +7861,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" x14ac:dyDescent="0.2">
       <c r="A439" s="0">
         <v>4.3699999999999513</v>
       </c>
@@ -7681,7 +7878,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" x14ac:dyDescent="0.2">
       <c r="A440" s="0">
         <v>4.379999999999951</v>
       </c>
@@ -7698,7 +7895,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" x14ac:dyDescent="0.2">
       <c r="A441" s="0">
         <v>4.3899999999999508</v>
       </c>
@@ -7715,7 +7912,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" x14ac:dyDescent="0.2">
       <c r="A442" s="0">
         <v>4.3999999999999506</v>
       </c>
@@ -7732,7 +7929,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" x14ac:dyDescent="0.2">
       <c r="A443" s="0">
         <v>4.4099999999999504</v>
       </c>
@@ -7749,7 +7946,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" x14ac:dyDescent="0.2">
       <c r="A444" s="0">
         <v>4.4199999999999502</v>
       </c>
@@ -7766,7 +7963,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" x14ac:dyDescent="0.2">
       <c r="A445" s="0">
         <v>4.42999999999995</v>
       </c>
@@ -7783,7 +7980,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" x14ac:dyDescent="0.2">
       <c r="A446" s="0">
         <v>4.4399999999999498</v>
       </c>
@@ -7800,7 +7997,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" x14ac:dyDescent="0.2">
       <c r="A447" s="0">
         <v>4.4499999999999496</v>
       </c>
@@ -7817,7 +8014,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" x14ac:dyDescent="0.2">
       <c r="A448" s="0">
         <v>4.4599999999999493</v>
       </c>
@@ -7834,7 +8031,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" x14ac:dyDescent="0.2">
       <c r="A449" s="0">
         <v>4.4699999999999491</v>
       </c>
@@ -7851,7 +8048,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" x14ac:dyDescent="0.2">
       <c r="A450" s="0">
         <v>4.4799999999999489</v>
       </c>
@@ -7868,7 +8065,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" x14ac:dyDescent="0.2">
       <c r="A451" s="0">
         <v>4.4899999999999487</v>
       </c>
@@ -7885,7 +8082,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" x14ac:dyDescent="0.2">
       <c r="A452" s="0">
         <v>4.4999999999999485</v>
       </c>
@@ -7902,7 +8099,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" x14ac:dyDescent="0.2">
       <c r="A453" s="0">
         <v>4.5099999999999483</v>
       </c>
@@ -7919,7 +8116,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" x14ac:dyDescent="0.2">
       <c r="A454" s="0">
         <v>4.5199999999999481</v>
       </c>
@@ -7936,7 +8133,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" x14ac:dyDescent="0.2">
       <c r="A455" s="0">
         <v>4.5299999999999478</v>
       </c>
@@ -7953,7 +8150,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" x14ac:dyDescent="0.2">
       <c r="A456" s="0">
         <v>4.5399999999999476</v>
       </c>
@@ -7970,7 +8167,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" x14ac:dyDescent="0.2">
       <c r="A457" s="0">
         <v>4.5499999999999474</v>
       </c>
@@ -7987,7 +8184,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" x14ac:dyDescent="0.2">
       <c r="A458" s="0">
         <v>4.5599999999999472</v>
       </c>
@@ -8004,7 +8201,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" x14ac:dyDescent="0.2">
       <c r="A459" s="0">
         <v>4.569999999999947</v>
       </c>
@@ -8021,7 +8218,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" x14ac:dyDescent="0.2">
       <c r="A460" s="0">
         <v>4.5799999999999468</v>
       </c>
@@ -8038,7 +8235,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" x14ac:dyDescent="0.2">
       <c r="A461" s="0">
         <v>4.5899999999999466</v>
       </c>
@@ -8055,7 +8252,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" x14ac:dyDescent="0.2">
       <c r="A462" s="0">
         <v>4.5999999999999464</v>
       </c>
@@ -8072,7 +8269,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" x14ac:dyDescent="0.2">
       <c r="A463" s="0">
         <v>4.6099999999999461</v>
       </c>
@@ -8089,7 +8286,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" x14ac:dyDescent="0.2">
       <c r="A464" s="0">
         <v>4.6199999999999459</v>
       </c>
@@ -8106,7 +8303,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" x14ac:dyDescent="0.2">
       <c r="A465" s="0">
         <v>4.6299999999999457</v>
       </c>
@@ -8123,7 +8320,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" x14ac:dyDescent="0.2">
       <c r="A466" s="0">
         <v>4.6399999999999455</v>
       </c>
@@ -8140,7 +8337,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" x14ac:dyDescent="0.2">
       <c r="A467" s="0">
         <v>4.6499999999999453</v>
       </c>
@@ -8157,7 +8354,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" x14ac:dyDescent="0.2">
       <c r="A468" s="0">
         <v>4.6599999999999451</v>
       </c>
@@ -8174,7 +8371,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" x14ac:dyDescent="0.2">
       <c r="A469" s="0">
         <v>4.6699999999999449</v>
       </c>
@@ -8191,7 +8388,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" x14ac:dyDescent="0.2">
       <c r="A470" s="0">
         <v>4.6799999999999446</v>
       </c>
@@ -8208,7 +8405,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" x14ac:dyDescent="0.2">
       <c r="A471" s="0">
         <v>4.6899999999999444</v>
       </c>
@@ -8225,7 +8422,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" x14ac:dyDescent="0.2">
       <c r="A472" s="0">
         <v>4.6999999999999442</v>
       </c>
@@ -8242,7 +8439,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" x14ac:dyDescent="0.2">
       <c r="A473" s="0">
         <v>4.709999999999944</v>
       </c>
@@ -8259,7 +8456,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" x14ac:dyDescent="0.2">
       <c r="A474" s="0">
         <v>4.7199999999999438</v>
       </c>
@@ -8276,7 +8473,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" x14ac:dyDescent="0.2">
       <c r="A475" s="0">
         <v>4.7299999999999436</v>
       </c>
@@ -8293,7 +8490,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" x14ac:dyDescent="0.2">
       <c r="A476" s="0">
         <v>4.7399999999999434</v>
       </c>
@@ -8310,7 +8507,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" x14ac:dyDescent="0.2">
       <c r="A477" s="0">
         <v>4.7499999999999432</v>
       </c>
@@ -8327,7 +8524,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" x14ac:dyDescent="0.2">
       <c r="A478" s="0">
         <v>4.7599999999999429</v>
       </c>
@@ -8344,7 +8541,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" x14ac:dyDescent="0.2">
       <c r="A479" s="0">
         <v>4.7699999999999427</v>
       </c>
@@ -8361,7 +8558,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" x14ac:dyDescent="0.2">
       <c r="A480" s="0">
         <v>4.7799999999999425</v>
       </c>
@@ -8378,7 +8575,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" x14ac:dyDescent="0.2">
       <c r="A481" s="0">
         <v>4.7899999999999423</v>
       </c>
@@ -8395,7 +8592,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" x14ac:dyDescent="0.2">
       <c r="A482" s="0">
         <v>4.7999999999999421</v>
       </c>
@@ -8412,7 +8609,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" x14ac:dyDescent="0.2">
       <c r="A483" s="0">
         <v>4.8099999999999419</v>
       </c>
@@ -8429,7 +8626,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" x14ac:dyDescent="0.2">
       <c r="A484" s="0">
         <v>4.8199999999999417</v>
       </c>
@@ -8446,7 +8643,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" x14ac:dyDescent="0.2">
       <c r="A485" s="0">
         <v>4.8299999999999415</v>
       </c>
@@ -8463,7 +8660,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" x14ac:dyDescent="0.2">
       <c r="A486" s="0">
         <v>4.8399999999999412</v>
       </c>
@@ -8480,7 +8677,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" x14ac:dyDescent="0.2">
       <c r="A487" s="0">
         <v>4.849999999999941</v>
       </c>
@@ -8497,7 +8694,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" x14ac:dyDescent="0.2">
       <c r="A488" s="0">
         <v>4.8599999999999408</v>
       </c>
@@ -8514,7 +8711,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" x14ac:dyDescent="0.2">
       <c r="A489" s="0">
         <v>4.8699999999999406</v>
       </c>
@@ -8531,7 +8728,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" x14ac:dyDescent="0.2">
       <c r="A490" s="0">
         <v>4.8799999999999404</v>
       </c>
@@ -8548,7 +8745,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" x14ac:dyDescent="0.2">
       <c r="A491" s="0">
         <v>4.8899999999999402</v>
       </c>
@@ -8565,7 +8762,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" x14ac:dyDescent="0.2">
       <c r="A492" s="0">
         <v>4.89999999999994</v>
       </c>
@@ -8582,7 +8779,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" x14ac:dyDescent="0.2">
       <c r="A493" s="0">
         <v>4.9099999999999397</v>
       </c>
@@ -8599,7 +8796,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" x14ac:dyDescent="0.2">
       <c r="A494" s="0">
         <v>4.9199999999999395</v>
       </c>
@@ -8616,7 +8813,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" x14ac:dyDescent="0.2">
       <c r="A495" s="0">
         <v>4.9299999999999393</v>
       </c>
@@ -8633,7 +8830,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" x14ac:dyDescent="0.2">
       <c r="A496" s="0">
         <v>4.9399999999999391</v>
       </c>
@@ -8650,7 +8847,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" x14ac:dyDescent="0.2">
       <c r="A497" s="0">
         <v>4.9499999999999389</v>
       </c>
@@ -8667,7 +8864,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" x14ac:dyDescent="0.2">
       <c r="A498" s="0">
         <v>4.9599999999999387</v>
       </c>
@@ -8684,7 +8881,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" x14ac:dyDescent="0.2">
       <c r="A499" s="0">
         <v>4.9699999999999385</v>
       </c>
@@ -8701,7 +8898,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" x14ac:dyDescent="0.2">
       <c r="A500" s="0">
         <v>4.9799999999999383</v>
       </c>
@@ -8718,7 +8915,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" x14ac:dyDescent="0.2">
       <c r="A501" s="0">
         <v>4.989999999999938</v>
       </c>
@@ -8735,7 +8932,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" x14ac:dyDescent="0.2">
       <c r="A502" s="0">
         <v>4.9999999999999378</v>
       </c>
@@ -8752,7 +8949,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" x14ac:dyDescent="0.2">
       <c r="A503" s="0">
         <v>5.0099999999999376</v>
       </c>
@@ -8769,7 +8966,7 @@
         <v>0.31598618547727214</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" x14ac:dyDescent="0.2">
       <c r="A504" s="0">
         <v>5.0199999999999374</v>
       </c>
@@ -8786,7 +8983,7 @@
         <v>0.36796786352215416</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" x14ac:dyDescent="0.2">
       <c r="A505" s="0">
         <v>5.0299999999999372</v>
       </c>
@@ -8803,7 +9000,7 @@
         <v>0.42823508849158465</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" x14ac:dyDescent="0.2">
       <c r="A506" s="0">
         <v>5.039999999999937</v>
       </c>
@@ -8820,7 +9017,7 @@
         <v>0.44595219422308952</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" x14ac:dyDescent="0.2">
       <c r="A507" s="0">
         <v>5.0499999999999368</v>
       </c>
@@ -8837,7 +9034,7 @@
         <v>0.46236981593839271</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" x14ac:dyDescent="0.2">
       <c r="A508" s="0">
         <v>5.0599999999999365</v>
       </c>
@@ -8854,7 +9051,7 @@
         <v>0.46905796541016359</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" x14ac:dyDescent="0.2">
       <c r="A509" s="0">
         <v>5.0699999999999363</v>
       </c>
@@ -8871,7 +9068,7 @@
         <v>0.47400875318267499</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" x14ac:dyDescent="0.2">
       <c r="A510" s="0">
         <v>5.0799999999999361</v>
       </c>
@@ -8888,7 +9085,7 @@
         <v>0.476383858476017</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" x14ac:dyDescent="0.2">
       <c r="A511" s="0">
         <v>5.0899999999999359</v>
       </c>
@@ -8905,7 +9102,7 @@
         <v>0.4779402814951334</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" x14ac:dyDescent="0.2">
       <c r="A512" s="0">
         <v>5.0999999999999357</v>
       </c>
@@ -8922,7 +9119,7 @@
         <v>0.47875325267795843</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" x14ac:dyDescent="0.2">
       <c r="A513" s="0">
         <v>5.1099999999999355</v>
       </c>
@@ -8939,7 +9136,7 @@
         <v>0.47925329008938944</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" x14ac:dyDescent="0.2">
       <c r="A514" s="0">
         <v>5.1199999999999353</v>
       </c>
@@ -8956,7 +9153,7 @@
         <v>0.47952642661229561</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" x14ac:dyDescent="0.2">
       <c r="A515" s="0">
         <v>5.1299999999999351</v>
       </c>
@@ -8973,7 +9170,7 @@
         <v>0.29874738642886284</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" x14ac:dyDescent="0.2">
       <c r="A516" s="0">
         <v>5.1399999999999348</v>
       </c>
@@ -8990,7 +9187,7 @@
         <v>0.11800422492081296</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" x14ac:dyDescent="0.2">
       <c r="A517" s="0">
         <v>5.1499999999999346</v>
       </c>
@@ -9007,7 +9204,7 @@
         <v>0.082003455572022058</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" x14ac:dyDescent="0.2">
       <c r="A518" s="0">
         <v>5.1599999999999344</v>
       </c>
@@ -9024,7 +9221,7 @@
         <v>0.039698160486215869</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" x14ac:dyDescent="0.2">
       <c r="A519" s="0">
         <v>5.1699999999999342</v>
       </c>
@@ -9041,7 +9238,7 @@
         <v>0.025589424331760063</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" x14ac:dyDescent="0.2">
       <c r="A520" s="0">
         <v>5.179999999999934</v>
       </c>
@@ -9058,7 +9255,7 @@
         <v>0.013476121023296983</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" x14ac:dyDescent="0.2">
       <c r="A521" s="0">
         <v>5.1899999999999338</v>
       </c>
@@ -9075,7 +9272,7 @@
         <v>0.0082304935812194929</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" x14ac:dyDescent="0.2">
       <c r="A522" s="0">
         <v>5.1999999999999336</v>
       </c>
@@ -9092,7 +9289,7 @@
         <v>0.0045169092063993398</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" x14ac:dyDescent="0.2">
       <c r="A523" s="0">
         <v>5.2099999999999334</v>
       </c>
@@ -9109,7 +9306,7 @@
         <v>0.0026786045737683391</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" x14ac:dyDescent="0.2">
       <c r="A524" s="0">
         <v>5.2199999999999331</v>
       </c>
@@ -9126,7 +9323,7 @@
         <v>0.0015017574660885452</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" x14ac:dyDescent="0.2">
       <c r="A525" s="0">
         <v>5.2299999999999329</v>
       </c>
@@ -9143,7 +9340,7 @@
         <v>0.00087685710924691965</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" x14ac:dyDescent="0.2">
       <c r="A526" s="0">
         <v>5.2399999999999327</v>
       </c>
@@ -9160,7 +9357,7 @@
         <v>0.00049713989406772454</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" x14ac:dyDescent="0.2">
       <c r="A527" s="0">
         <v>5.2499999999999325</v>
       </c>
@@ -9177,7 +9374,7 @@
         <v>0.0002879230470735904</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" x14ac:dyDescent="0.2">
       <c r="A528" s="0">
         <v>5.2599999999999323</v>
       </c>
@@ -9194,7 +9391,7 @@
         <v>0.00016420076680622641</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" x14ac:dyDescent="0.2">
       <c r="A529" s="0">
         <v>5.2699999999999321</v>
       </c>
@@ -9211,7 +9408,7 @@
         <v>9.4694114298295639e-05</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" x14ac:dyDescent="0.2">
       <c r="A530" s="0">
         <v>5.2799999999999319</v>
       </c>
@@ -9228,7 +9425,7 @@
         <v>5.4170006349549933e-05</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" x14ac:dyDescent="0.2">
       <c r="A531" s="0">
         <v>5.2899999999999316</v>
       </c>
@@ -9245,7 +9442,7 @@
         <v>3.1170030048542804e-05</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" x14ac:dyDescent="0.2">
       <c r="A532" s="0">
         <v>5.2999999999999314</v>
       </c>
@@ -9262,7 +9459,7 @@
         <v>1.7859710297384725e-05</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" x14ac:dyDescent="0.2">
       <c r="A533" s="0">
         <v>5.3099999999999312</v>
       </c>
@@ -9279,7 +9476,7 @@
         <v>1.0264660764036636e-05</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" x14ac:dyDescent="0.2">
       <c r="A534" s="0">
         <v>5.319999999999931</v>
       </c>
@@ -9296,7 +9493,7 @@
         <v>5.8863968029341157e-06</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" x14ac:dyDescent="0.2">
       <c r="A535" s="0">
         <v>5.3299999999999308</v>
       </c>
@@ -9313,7 +9510,7 @@
         <v>3.38106369035529e-06</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" x14ac:dyDescent="0.2">
       <c r="A536" s="0">
         <v>5.3399999999999306</v>
       </c>
@@ -9330,7 +9527,7 @@
         <v>1.9397738828530587e-06</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" x14ac:dyDescent="0.2">
       <c r="A537" s="0">
         <v>5.3499999999999304</v>
       </c>
@@ -9347,7 +9544,7 @@
         <v>1.1138206865157331e-06</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" x14ac:dyDescent="0.2">
       <c r="A538" s="0">
         <v>5.3599999999999302</v>
       </c>
@@ -9364,7 +9561,7 @@
         <v>6.3916669112973351e-07</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" x14ac:dyDescent="0.2">
       <c r="A539" s="0">
         <v>5.3699999999999299</v>
       </c>
@@ -9381,7 +9578,7 @@
         <v>3.6694848526418147e-07</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" x14ac:dyDescent="0.2">
       <c r="A540" s="0">
         <v>5.3799999999999297</v>
       </c>
@@ -9398,7 +9595,7 @@
         <v>2.1059931842869762e-07</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" x14ac:dyDescent="0.2">
       <c r="A541" s="0">
         <v>5.3899999999999295</v>
       </c>
@@ -9415,7 +9612,7 @@
         <v>1.2089533457659369e-07</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" x14ac:dyDescent="0.2">
       <c r="A542" s="0">
         <v>5.3999999999999293</v>
       </c>
@@ -9432,7 +9629,7 @@
         <v>6.9388769952102933e-08</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" x14ac:dyDescent="0.2">
       <c r="A543" s="0">
         <v>5.4099999999999291</v>
       </c>
@@ -9449,7 +9646,7 @@
         <v>3.9831039078118252e-08</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" x14ac:dyDescent="0.2">
       <c r="A544" s="0">
         <v>5.4199999999999289</v>
       </c>
@@ -9466,7 +9663,7 @@
         <v>2.2862087334373444e-08</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" x14ac:dyDescent="0.2">
       <c r="A545" s="0">
         <v>5.4299999999999287</v>
       </c>
@@ -9483,7 +9680,7 @@
         <v>1.3123143460799073e-08</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" x14ac:dyDescent="0.2">
       <c r="A546" s="0">
         <v>5.4399999999999284</v>
       </c>
@@ -9500,7 +9697,7 @@
         <v>7.5325076731577581e-09</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" x14ac:dyDescent="0.2">
       <c r="A547" s="0">
         <v>5.4499999999999282</v>
       </c>
@@ -9517,7 +9714,7 @@
         <v>4.3237038394037786e-09</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" x14ac:dyDescent="0.2">
       <c r="A548" s="0">
         <v>5.459999999999928</v>
       </c>
@@ -9534,7 +9731,7 @@
         <v>2.4817711219426029e-09</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" x14ac:dyDescent="0.2">
       <c r="A549" s="0">
         <v>5.4699999999999278</v>
       </c>
@@ -9551,7 +9748,7 @@
         <v>1.4245407631285346e-09</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" x14ac:dyDescent="0.2">
       <c r="A550" s="0">
         <v>5.4799999999999276</v>
       </c>
@@ -9568,7 +9765,7 @@
         <v>8.1767909110294225e-10</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" x14ac:dyDescent="0.2">
       <c r="A551" s="0">
         <v>5.4899999999999274</v>
       </c>
@@ -9585,7 +9782,7 @@
         <v>4.6934806041674495e-10</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" x14ac:dyDescent="0.2">
       <c r="A552" s="0">
         <v>5.4999999999999272</v>
       </c>
@@ -9602,7 +9799,7 @@
         <v>2.6940383257566591e-10</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" x14ac:dyDescent="0.2">
       <c r="A553" s="0">
         <v>5.509999999999927</v>
       </c>
@@ -9619,7 +9816,7 @@
         <v>1.5463541558346455e-10</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" x14ac:dyDescent="0.2">
       <c r="A554" s="0">
         <v>5.5199999999999267</v>
       </c>
@@ -9636,7 +9833,7 @@
         <v>8.8760554461938401e-11</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" x14ac:dyDescent="0.2">
       <c r="A555" s="0">
         <v>5.5299999999999265</v>
       </c>
@@ -9653,7 +9850,7 @@
         <v>5.0950244023793231e-11</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" x14ac:dyDescent="0.2">
       <c r="A556" s="0">
         <v>5.5399999999999263</v>
       </c>
@@ -9670,7 +9867,7 @@
         <v>2.9244162615196606e-11</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" x14ac:dyDescent="0.2">
       <c r="A557" s="0">
         <v>5.5499999999999261</v>
       </c>
@@ -9687,7 +9884,7 @@
         <v>1.6787904399961264e-11</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" x14ac:dyDescent="0.2">
       <c r="A558" s="0">
         <v>5.5599999999999259</v>
       </c>
@@ -9704,7 +9901,7 @@
         <v>9.6340158073356523e-12</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" x14ac:dyDescent="0.2">
       <c r="A559" s="0">
         <v>5.5699999999999257</v>
       </c>
@@ -9721,7 +9918,7 @@
         <v>5.5288551514818334e-12</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" x14ac:dyDescent="0.2">
       <c r="A560" s="0">
         <v>5.5799999999999255</v>
       </c>
@@ -9738,7 +9935,7 @@
         <v>3.1744051831593552e-12</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" x14ac:dyDescent="0.2">
       <c r="A561" s="0">
         <v>5.5899999999999253</v>
       </c>
@@ -9755,7 +9952,7 @@
         <v>1.8211543384438044e-12</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" x14ac:dyDescent="0.2">
       <c r="A562" s="0">
         <v>5.599999999999925</v>
       </c>
@@ -9772,7 +9969,7 @@
         <v>1.0456635557431629e-12</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" x14ac:dyDescent="0.2">
       <c r="A563" s="0">
         <v>5.6099999999999248</v>
       </c>
@@ -9789,7 +9986,7 @@
         <v>6.0185190164927393e-13</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" x14ac:dyDescent="0.2">
       <c r="A564" s="0">
         <v>5.6199999999999246</v>
       </c>
@@ -9806,7 +10003,7 @@
         <v>3.4516833835594774e-13</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" x14ac:dyDescent="0.2">
       <c r="A565" s="0">
         <v>5.6299999999999244</v>
       </c>
@@ -9823,7 +10020,7 @@
         <v>1.9734214262711385e-13</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" x14ac:dyDescent="0.2">
       <c r="A566" s="0">
         <v>5.6399999999999242</v>
       </c>
@@ -9840,7 +10037,7 @@
         <v>1.1335377081422404e-13</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" x14ac:dyDescent="0.2">
       <c r="A567" s="0">
         <v>5.649999999999924</v>
       </c>
@@ -9857,7 +10054,7 @@
         <v>6.5725204396604989e-14</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" x14ac:dyDescent="0.2">
       <c r="A568" s="0">
         <v>5.6599999999999238</v>
       </c>
@@ -9874,7 +10071,7 @@
         <v>3.7303513876011931e-14</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" x14ac:dyDescent="0.2">
       <c r="A569" s="0">
         <v>5.6699999999999235</v>
       </c>
@@ -9891,7 +10088,7 @@
         <v>2.3092588903484882e-14</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" x14ac:dyDescent="0.2">
       <c r="A570" s="0">
         <v>5.6799999999999233</v>
       </c>
@@ -9908,7 +10105,7 @@
         <v>1.3322676295501405e-14</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" x14ac:dyDescent="0.2">
       <c r="A571" s="0">
         <v>5.6899999999999231</v>
       </c>
@@ -9925,7 +10122,7 @@
         <v>5.6621374255880017e-15</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" x14ac:dyDescent="0.2">
       <c r="A572" s="0">
         <v>5.6999999999999229</v>
       </c>
@@ -9942,7 +10139,7 @@
         <v>5.329023055774963e-15</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" x14ac:dyDescent="0.2">
       <c r="A573" s="0">
         <v>5.7099999999999227</v>
       </c>
@@ -9959,7 +10156,7 @@
         <v>2.9420910152565757e-15</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" x14ac:dyDescent="0.2">
       <c r="A574" s="0">
         <v>5.7199999999999225</v>
       </c>
@@ -9976,7 +10173,7 @@
         <v>1.7762859840039823e-15</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" x14ac:dyDescent="0.2">
       <c r="A575" s="0">
         <v>5.7299999999999223</v>
       </c>
@@ -9993,7 +10190,7 @@
         <v>1.7763568394002509e-15</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" x14ac:dyDescent="0.2">
       <c r="A576" s="0">
         <v>5.7399999999999221</v>
       </c>
@@ -10010,7 +10207,7 @@
         <v>-1.7763599311575606e-15</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" x14ac:dyDescent="0.2">
       <c r="A577" s="0">
         <v>5.7499999999999218</v>
       </c>
@@ -10027,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" x14ac:dyDescent="0.2">
       <c r="A578" s="0">
         <v>5.7599999999999216</v>
       </c>
@@ -10044,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" x14ac:dyDescent="0.2">
       <c r="A579" s="0">
         <v>5.7699999999999214</v>
       </c>
@@ -10061,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" x14ac:dyDescent="0.2">
       <c r="A580" s="0">
         <v>5.7799999999999212</v>
       </c>
@@ -10078,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" x14ac:dyDescent="0.2">
       <c r="A581" s="0">
         <v>5.789999999999921</v>
       </c>
@@ -10095,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" x14ac:dyDescent="0.2">
       <c r="A582" s="0">
         <v>5.7999999999999208</v>
       </c>
@@ -10112,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" x14ac:dyDescent="0.2">
       <c r="A583" s="0">
         <v>5.8099999999999206</v>
       </c>
@@ -10129,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" x14ac:dyDescent="0.2">
       <c r="A584" s="0">
         <v>5.8199999999999203</v>
       </c>
@@ -10146,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" x14ac:dyDescent="0.2">
       <c r="A585" s="0">
         <v>5.8299999999999201</v>
       </c>
@@ -10163,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" x14ac:dyDescent="0.2">
       <c r="A586" s="0">
         <v>5.8399999999999199</v>
       </c>
@@ -10180,7 +10377,7 @@
         <v>-3.3580246913580254</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" x14ac:dyDescent="0.2">
       <c r="A587" s="0">
         <v>5.8499999999999197</v>
       </c>
@@ -10197,7 +10394,7 @@
         <v>-0.15241579027584071</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" x14ac:dyDescent="0.2">
       <c r="A588" s="0">
         <v>5.8599999999999195</v>
       </c>
@@ -10214,7 +10411,7 @@
         <v>-0.75651671587250924</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" x14ac:dyDescent="0.2">
       <c r="A589" s="0">
         <v>5.8699999999999193</v>
       </c>
@@ -10231,7 +10428,7 @@
         <v>-0.1437307617460456</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" x14ac:dyDescent="0.2">
       <c r="A590" s="0">
         <v>5.8799999999999191</v>
       </c>
@@ -10248,7 +10445,7 @@
         <v>-0.20098672656646463</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" x14ac:dyDescent="0.2">
       <c r="A591" s="0">
         <v>5.8899999999999189</v>
       </c>
@@ -10265,7 +10462,7 @@
         <v>-0.06571295586057703</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" x14ac:dyDescent="0.2">
       <c r="A592" s="0">
         <v>5.8999999999999186</v>
       </c>
@@ -10282,7 +10479,7 @@
         <v>-0.058281765082527109</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" x14ac:dyDescent="0.2">
       <c r="A593" s="0">
         <v>5.9099999999999184</v>
       </c>
@@ -10299,7 +10496,7 @@
         <v>-0.024894015387860464</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" x14ac:dyDescent="0.2">
       <c r="A594" s="0">
         <v>5.9199999999999182</v>
       </c>
@@ -10316,7 +10513,7 @@
         <v>-0.017844198568606199</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" x14ac:dyDescent="0.2">
       <c r="A595" s="0">
         <v>5.929999999999918</v>
       </c>
@@ -10333,7 +10530,7 @@
         <v>-0.0087645375856970631</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" x14ac:dyDescent="0.2">
       <c r="A596" s="0">
         <v>5.9399999999999178</v>
       </c>
@@ -10350,7 +10547,7 @@
         <v>-0.0056450259927834558</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" x14ac:dyDescent="0.2">
       <c r="A597" s="0">
         <v>5.9499999999999176</v>
       </c>
@@ -10367,7 +10564,7 @@
         <v>-0.0029849464045479546</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" x14ac:dyDescent="0.2">
       <c r="A598" s="0">
         <v>5.9599999999999174</v>
       </c>
@@ -10384,7 +10581,7 @@
         <v>-0.0018194516845975184</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" x14ac:dyDescent="0.2">
       <c r="A599" s="0">
         <v>5.9699999999999172</v>
       </c>
@@ -10401,7 +10598,7 @@
         <v>-0.0010002644349244179</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" x14ac:dyDescent="0.2">
       <c r="A600" s="0">
         <v>5.9799999999999169</v>
       </c>
@@ -10418,7 +10615,7 @@
         <v>-0.00059247701460077816</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" x14ac:dyDescent="0.2">
       <c r="A601" s="0">
         <v>5.9899999999999167</v>
       </c>
@@ -10435,7 +10632,7 @@
         <v>-0.00033246336295267303</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" x14ac:dyDescent="0.2">
       <c r="A602" s="0">
         <v>5.9999999999999165</v>
       </c>
@@ -10452,7 +10649,7 @@
         <v>-0.00019399908897798441</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" x14ac:dyDescent="0.2">
       <c r="A603" s="0">
         <v>6.0099999999999163</v>
       </c>
@@ -10469,7 +10666,7 @@
         <v>-0.00011003929093877927</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" x14ac:dyDescent="0.2">
       <c r="A604" s="0">
         <v>6.0199999999999161</v>
       </c>
@@ -10486,7 +10683,7 @@
         <v>-6.3709175839446773e-05</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" x14ac:dyDescent="0.2">
       <c r="A605" s="0">
         <v>6.0299999999999159</v>
       </c>
@@ -10503,7 +10700,7 @@
         <v>-3.6341647778879958e-05</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" x14ac:dyDescent="0.2">
       <c r="A606" s="0">
         <v>6.0399999999999157</v>
       </c>
@@ -10520,7 +10717,7 @@
         <v>-2.0954491172453654e-05</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" x14ac:dyDescent="0.2">
       <c r="A607" s="0">
         <v>6.0499999999999154</v>
       </c>
@@ -10537,7 +10734,7 @@
         <v>-1.1988572889059611e-05</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" x14ac:dyDescent="0.2">
       <c r="A608" s="0">
         <v>6.0599999999999152</v>
       </c>
@@ -10554,7 +10751,7 @@
         <v>-6.897732557603352e-06</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" x14ac:dyDescent="0.2">
       <c r="A609" s="0">
         <v>6.069999999999915</v>
       </c>
@@ -10571,7 +10768,7 @@
         <v>-3.952502042103844e-06</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" x14ac:dyDescent="0.2">
       <c r="A610" s="0">
         <v>6.0799999999999148</v>
       </c>
@@ -10588,7 +10785,7 @@
         <v>-2.2715463519894737e-06</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" x14ac:dyDescent="0.2">
       <c r="A611" s="0">
         <v>6.0899999999999146</v>
       </c>
@@ -10605,7 +10802,7 @@
         <v>-1.3026913014966617e-06</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" x14ac:dyDescent="0.2">
       <c r="A612" s="0">
         <v>6.0999999999999144</v>
       </c>
@@ -10622,7 +10819,7 @@
         <v>-7.4822890905320546e-07</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" x14ac:dyDescent="0.2">
       <c r="A613" s="0">
         <v>6.1099999999999142</v>
       </c>
@@ -10639,7 +10836,7 @@
         <v>-4.2927944310377952e-07</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" x14ac:dyDescent="0.2">
       <c r="A614" s="0">
         <v>6.119999999999914</v>
       </c>
@@ -10656,7 +10853,7 @@
         <v>-2.4648958751870716e-07</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" x14ac:dyDescent="0.2">
       <c r="A615" s="0">
         <v>6.1299999999999137</v>
       </c>
@@ -10673,7 +10870,7 @@
         <v>-1.4144954274542866e-07</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" x14ac:dyDescent="0.2">
       <c r="A616" s="0">
         <v>6.1399999999999135</v>
       </c>
@@ -10690,7 +10887,7 @@
         <v>-8.1206263768948282e-08</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" x14ac:dyDescent="0.2">
       <c r="A617" s="0">
         <v>6.1499999999999133</v>
       </c>
@@ -10707,7 +10904,7 @@
         <v>-4.6606184689299285e-08</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" x14ac:dyDescent="0.2">
       <c r="A618" s="0">
         <v>6.1599999999999131</v>
       </c>
@@ -10724,7 +10921,7 @@
         <v>-2.6754359616630927e-08</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" x14ac:dyDescent="0.2">
       <c r="A619" s="0">
         <v>6.1699999999999129</v>
       </c>
@@ -10741,7 +10938,7 @@
         <v>-1.5355902327475071e-08</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" x14ac:dyDescent="0.2">
       <c r="A620" s="0">
         <v>6.1799999999999127</v>
       </c>
@@ -10758,7 +10955,7 @@
         <v>-8.814688728930531e-09</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" x14ac:dyDescent="0.2">
       <c r="A621" s="0">
         <v>6.1899999999999125</v>
       </c>
@@ -10775,7 +10972,7 @@
         <v>-5.0594327338780139e-09</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" x14ac:dyDescent="0.2">
       <c r="A622" s="0">
         <v>6.1999999999999122</v>
       </c>
@@ -10792,7 +10989,7 @@
         <v>-2.9041787585891687e-09</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" x14ac:dyDescent="0.2">
       <c r="A623" s="0">
         <v>6.209999999999912</v>
       </c>
@@ -10809,7 +11006,7 @@
         <v>-1.666959764667843e-09</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" x14ac:dyDescent="0.2">
       <c r="A624" s="0">
         <v>6.2199999999999118</v>
       </c>
@@ -10826,7 +11023,7 @@
         <v>-9.5684543621739778e-10</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" x14ac:dyDescent="0.2">
       <c r="A625" s="0">
         <v>6.2299999999999116</v>
       </c>
@@ -10843,7 +11040,7 @@
         <v>-5.4922186243364715e-10</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" x14ac:dyDescent="0.2">
       <c r="A626" s="0">
         <v>6.2399999999999114</v>
       </c>
@@ -10860,7 +11057,7 @@
         <v>-3.1525465571390234e-10</v>
       </c>
     </row>
-    <row r="627">
+    <row r="627" x14ac:dyDescent="0.2">
       <c r="A627" s="0">
         <v>6.2499999999999112</v>
       </c>
@@ -10877,7 +11074,7 @@
         <v>-1.8095480668087431e-10</v>
       </c>
     </row>
-    <row r="628">
+    <row r="628" x14ac:dyDescent="0.2">
       <c r="A628" s="0">
         <v>6.259999999999911</v>
       </c>
@@ -10894,7 +11091,7 @@
         <v>-1.0386802530200986e-10</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" x14ac:dyDescent="0.2">
       <c r="A629" s="0">
         <v>6.2699999999999108</v>
       </c>
@@ -10911,7 +11108,7 @@
         <v>-5.9620225423271283e-11</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" x14ac:dyDescent="0.2">
       <c r="A630" s="0">
         <v>6.2799999999999105</v>
       </c>
@@ -10928,7 +11125,7 @@
         <v>-3.4222652489644735e-11</v>
       </c>
     </row>
-    <row r="631">
+    <row r="631" x14ac:dyDescent="0.2">
       <c r="A631" s="0">
         <v>6.2899999999999103</v>
       </c>
@@ -10945,7 +11142,7 @@
         <v>-1.964287066336036e-11</v>
       </c>
     </row>
-    <row r="632">
+    <row r="632" x14ac:dyDescent="0.2">
       <c r="A632" s="0">
         <v>6.2999999999999101</v>
       </c>
@@ -10962,7 +11159,7 @@
         <v>-1.1274869926580338e-11</v>
       </c>
     </row>
-    <row r="633">
+    <row r="633" x14ac:dyDescent="0.2">
       <c r="A633" s="0">
         <v>6.3099999999999099</v>
       </c>
@@ -10979,7 +11176,7 @@
         <v>-6.4714622549641698e-12</v>
       </c>
     </row>
-    <row r="634">
+    <row r="634" x14ac:dyDescent="0.2">
       <c r="A634" s="0">
         <v>6.3199999999999097</v>
       </c>
@@ -10996,7 +11193,7 @@
         <v>-3.7150560405761698e-12</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" x14ac:dyDescent="0.2">
       <c r="A635" s="0">
         <v>6.3299999999999095</v>
       </c>
@@ -11013,7 +11210,7 @@
         <v>-2.1325163475454637e-12</v>
       </c>
     </row>
-    <row r="636">
+    <row r="636" x14ac:dyDescent="0.2">
       <c r="A636" s="0">
         <v>6.3399999999999093</v>
       </c>
@@ -11030,7 +11227,7 @@
         <v>-1.2236323065905686e-12</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" x14ac:dyDescent="0.2">
       <c r="A637" s="0">
         <v>6.3499999999999091</v>
       </c>
@@ -11047,7 +11244,7 @@
         <v>-7.0266015228523411e-13</v>
       </c>
     </row>
-    <row r="638">
+    <row r="638" x14ac:dyDescent="0.2">
       <c r="A638" s="0">
         <v>6.3599999999999088</v>
       </c>
@@ -11064,7 +11261,7 @@
         <v>-4.0412117026647729e-13</v>
       </c>
     </row>
-    <row r="639">
+    <row r="639" x14ac:dyDescent="0.2">
       <c r="A639" s="0">
         <v>6.3699999999999086</v>
       </c>
@@ -11081,7 +11278,7 @@
         <v>-2.3181453731478262e-13</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" x14ac:dyDescent="0.2">
       <c r="A640" s="0">
         <v>6.3799999999999084</v>
       </c>
@@ -11098,7 +11295,7 @@
         <v>-1.3283818489639478e-13</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" x14ac:dyDescent="0.2">
       <c r="A641" s="0">
         <v>6.3899999999999082</v>
       </c>
@@ -11115,7 +11312,7 @@
         <v>-7.5495154593432413e-14</v>
       </c>
     </row>
-    <row r="642">
+    <row r="642" x14ac:dyDescent="0.2">
       <c r="A642" s="0">
         <v>6.399999999999908</v>
       </c>
@@ -11132,7 +11329,7 @@
         <v>-4.3520736883923529e-14</v>
       </c>
     </row>
-    <row r="643">
+    <row r="643" x14ac:dyDescent="0.2">
       <c r="A643" s="0">
         <v>6.4099999999999078</v>
       </c>
@@ -11149,7 +11346,7 @@
         <v>-2.4369395390521208e-14</v>
       </c>
     </row>
-    <row r="644">
+    <row r="644" x14ac:dyDescent="0.2">
       <c r="A644" s="0">
         <v>6.4199999999999076</v>
       </c>
@@ -11166,7 +11363,7 @@
         <v>-1.3794521080966993e-14</v>
       </c>
     </row>
-    <row r="645">
+    <row r="645" x14ac:dyDescent="0.2">
       <c r="A645" s="0">
         <v>6.4299999999999073</v>
       </c>
@@ -11183,7 +11380,7 @@
         <v>-7.9936075303570887e-15</v>
       </c>
     </row>
-    <row r="646">
+    <row r="646" x14ac:dyDescent="0.2">
       <c r="A646" s="0">
         <v>6.4399999999999071</v>
       </c>
@@ -11200,7 +11397,7 @@
         <v>-4.4409660110805059e-15</v>
       </c>
     </row>
-    <row r="647">
+    <row r="647" x14ac:dyDescent="0.2">
       <c r="A647" s="0">
         <v>6.4499999999999069</v>
       </c>
@@ -11217,7 +11414,7 @@
         <v>-2.6645623826502007e-15</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" x14ac:dyDescent="0.2">
       <c r="A648" s="0">
         <v>6.4599999999999067</v>
       </c>
@@ -11234,7 +11431,7 @@
         <v>-8.882874982724977e-16</v>
       </c>
     </row>
-    <row r="649">
+    <row r="649" x14ac:dyDescent="0.2">
       <c r="A649" s="0">
         <v>6.4699999999999065</v>
       </c>
@@ -11251,7 +11448,7 @@
         <v>3.0531133177196262e-16</v>
       </c>
     </row>
-    <row r="650">
+    <row r="650" x14ac:dyDescent="0.2">
       <c r="A650" s="0">
         <v>6.4799999999999063</v>
       </c>
@@ -11268,7 +11465,7 @@
         <v>-8.881783990206109e-16</v>
       </c>
     </row>
-    <row r="651">
+    <row r="651" x14ac:dyDescent="0.2">
       <c r="A651" s="0">
         <v>6.4899999999999061</v>
       </c>
@@ -11285,7 +11482,7 @@
         <v>-8.8817839323034681e-16</v>
       </c>
     </row>
-    <row r="652">
+    <row r="652" x14ac:dyDescent="0.2">
       <c r="A652" s="0">
         <v>6.4999999999999059</v>
       </c>
@@ -11302,7 +11499,7 @@
         <v>8.8818509373211124e-16</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" x14ac:dyDescent="0.2">
       <c r="A653" s="0">
         <v>6.5099999999999056</v>
       </c>
@@ -11319,7 +11516,7 @@
         <v>-8.8817841970012444e-16</v>
       </c>
     </row>
-    <row r="654">
+    <row r="654" x14ac:dyDescent="0.2">
       <c r="A654" s="0">
         <v>6.5199999999999054</v>
       </c>
@@ -11336,7 +11533,7 @@
         <v>8.8817841970012504e-16</v>
       </c>
     </row>
-    <row r="655">
+    <row r="655" x14ac:dyDescent="0.2">
       <c r="A655" s="0">
         <v>6.5299999999999052</v>
       </c>
@@ -11353,7 +11550,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="656">
+    <row r="656" x14ac:dyDescent="0.2">
       <c r="A656" s="0">
         <v>6.539999999999905</v>
       </c>
@@ -11370,7 +11567,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="657">
+    <row r="657" x14ac:dyDescent="0.2">
       <c r="A657" s="0">
         <v>6.5499999999999048</v>
       </c>
@@ -11387,7 +11584,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="658">
+    <row r="658" x14ac:dyDescent="0.2">
       <c r="A658" s="0">
         <v>6.5599999999999046</v>
       </c>
@@ -11404,7 +11601,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="659">
+    <row r="659" x14ac:dyDescent="0.2">
       <c r="A659" s="0">
         <v>6.5699999999999044</v>
       </c>
@@ -11421,7 +11618,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="660">
+    <row r="660" x14ac:dyDescent="0.2">
       <c r="A660" s="0">
         <v>6.5799999999999041</v>
       </c>
@@ -11438,7 +11635,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" x14ac:dyDescent="0.2">
       <c r="A661" s="0">
         <v>6.5899999999999039</v>
       </c>
@@ -11455,7 +11652,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="662">
+    <row r="662" x14ac:dyDescent="0.2">
       <c r="A662" s="0">
         <v>6.5999999999999037</v>
       </c>
@@ -11472,7 +11669,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="663">
+    <row r="663" x14ac:dyDescent="0.2">
       <c r="A663" s="0">
         <v>6.6099999999999035</v>
       </c>
@@ -11489,7 +11686,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="664">
+    <row r="664" x14ac:dyDescent="0.2">
       <c r="A664" s="0">
         <v>6.6199999999999033</v>
       </c>
@@ -11506,7 +11703,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="665">
+    <row r="665" x14ac:dyDescent="0.2">
       <c r="A665" s="0">
         <v>6.6299999999999031</v>
       </c>
@@ -11523,7 +11720,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="666">
+    <row r="666" x14ac:dyDescent="0.2">
       <c r="A666" s="0">
         <v>6.6399999999999029</v>
       </c>
@@ -11540,7 +11737,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="667">
+    <row r="667" x14ac:dyDescent="0.2">
       <c r="A667" s="0">
         <v>6.6499999999999027</v>
       </c>
@@ -11557,7 +11754,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="668">
+    <row r="668" x14ac:dyDescent="0.2">
       <c r="A668" s="0">
         <v>6.6599999999999024</v>
       </c>
@@ -11574,7 +11771,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" x14ac:dyDescent="0.2">
       <c r="A669" s="0">
         <v>6.6699999999999022</v>
       </c>
@@ -11591,7 +11788,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="670">
+    <row r="670" x14ac:dyDescent="0.2">
       <c r="A670" s="0">
         <v>6.679999999999902</v>
       </c>
@@ -11608,7 +11805,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" x14ac:dyDescent="0.2">
       <c r="A671" s="0">
         <v>6.6899999999999018</v>
       </c>
@@ -11625,7 +11822,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="672">
+    <row r="672" x14ac:dyDescent="0.2">
       <c r="A672" s="0">
         <v>6.6999999999999016</v>
       </c>
@@ -11642,7 +11839,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="673">
+    <row r="673" x14ac:dyDescent="0.2">
       <c r="A673" s="0">
         <v>6.7099999999999014</v>
       </c>
@@ -11659,7 +11856,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="674">
+    <row r="674" x14ac:dyDescent="0.2">
       <c r="A674" s="0">
         <v>6.7199999999999012</v>
       </c>
@@ -11676,7 +11873,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="675">
+    <row r="675" x14ac:dyDescent="0.2">
       <c r="A675" s="0">
         <v>6.729999999999901</v>
       </c>
@@ -11693,7 +11890,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="676">
+    <row r="676" x14ac:dyDescent="0.2">
       <c r="A676" s="0">
         <v>6.7399999999999007</v>
       </c>
@@ -11710,7 +11907,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="677">
+    <row r="677" x14ac:dyDescent="0.2">
       <c r="A677" s="0">
         <v>6.7499999999999005</v>
       </c>
@@ -11727,7 +11924,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="678">
+    <row r="678" x14ac:dyDescent="0.2">
       <c r="A678" s="0">
         <v>6.7599999999999003</v>
       </c>
@@ -11744,7 +11941,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="679">
+    <row r="679" x14ac:dyDescent="0.2">
       <c r="A679" s="0">
         <v>6.7699999999999001</v>
       </c>
@@ -11761,7 +11958,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="680">
+    <row r="680" x14ac:dyDescent="0.2">
       <c r="A680" s="0">
         <v>6.7799999999998999</v>
       </c>
@@ -11778,7 +11975,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="681">
+    <row r="681" x14ac:dyDescent="0.2">
       <c r="A681" s="0">
         <v>6.7899999999998997</v>
       </c>
@@ -11795,7 +11992,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="682">
+    <row r="682" x14ac:dyDescent="0.2">
       <c r="A682" s="0">
         <v>6.7999999999998995</v>
       </c>
@@ -11812,7 +12009,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="683">
+    <row r="683" x14ac:dyDescent="0.2">
       <c r="A683" s="0">
         <v>6.8099999999998992</v>
       </c>
@@ -11829,7 +12026,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="684">
+    <row r="684" x14ac:dyDescent="0.2">
       <c r="A684" s="0">
         <v>6.819999999999899</v>
       </c>
@@ -11846,7 +12043,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="685">
+    <row r="685" x14ac:dyDescent="0.2">
       <c r="A685" s="0">
         <v>6.8299999999998988</v>
       </c>
@@ -11863,7 +12060,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="686">
+    <row r="686" x14ac:dyDescent="0.2">
       <c r="A686" s="0">
         <v>6.8399999999998986</v>
       </c>
@@ -11880,7 +12077,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="687">
+    <row r="687" x14ac:dyDescent="0.2">
       <c r="A687" s="0">
         <v>6.8499999999998984</v>
       </c>
@@ -11897,7 +12094,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="688">
+    <row r="688" x14ac:dyDescent="0.2">
       <c r="A688" s="0">
         <v>6.8599999999998982</v>
       </c>
@@ -11914,7 +12111,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="689">
+    <row r="689" x14ac:dyDescent="0.2">
       <c r="A689" s="0">
         <v>6.869999999999898</v>
       </c>
@@ -11931,7 +12128,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="690">
+    <row r="690" x14ac:dyDescent="0.2">
       <c r="A690" s="0">
         <v>6.8799999999998978</v>
       </c>
@@ -11948,7 +12145,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" x14ac:dyDescent="0.2">
       <c r="A691" s="0">
         <v>6.8899999999998975</v>
       </c>
@@ -11965,7 +12162,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="692">
+    <row r="692" x14ac:dyDescent="0.2">
       <c r="A692" s="0">
         <v>6.8999999999998973</v>
       </c>
@@ -11982,7 +12179,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="693">
+    <row r="693" x14ac:dyDescent="0.2">
       <c r="A693" s="0">
         <v>6.9099999999998971</v>
       </c>
@@ -11999,7 +12196,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="694">
+    <row r="694" x14ac:dyDescent="0.2">
       <c r="A694" s="0">
         <v>6.9199999999998969</v>
       </c>
@@ -12016,7 +12213,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="695">
+    <row r="695" x14ac:dyDescent="0.2">
       <c r="A695" s="0">
         <v>6.9299999999998967</v>
       </c>
@@ -12033,7 +12230,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="696">
+    <row r="696" x14ac:dyDescent="0.2">
       <c r="A696" s="0">
         <v>6.9399999999998965</v>
       </c>
@@ -12050,7 +12247,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="697">
+    <row r="697" x14ac:dyDescent="0.2">
       <c r="A697" s="0">
         <v>6.9499999999998963</v>
       </c>
@@ -12067,7 +12264,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="698">
+    <row r="698" x14ac:dyDescent="0.2">
       <c r="A698" s="0">
         <v>6.959999999999896</v>
       </c>
@@ -12084,7 +12281,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="699">
+    <row r="699" x14ac:dyDescent="0.2">
       <c r="A699" s="0">
         <v>6.9699999999998958</v>
       </c>
@@ -12101,7 +12298,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="700">
+    <row r="700" x14ac:dyDescent="0.2">
       <c r="A700" s="0">
         <v>6.9799999999998956</v>
       </c>
@@ -12118,7 +12315,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="701">
+    <row r="701" x14ac:dyDescent="0.2">
       <c r="A701" s="0">
         <v>6.9899999999998954</v>
       </c>
@@ -12135,7 +12332,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="702">
+    <row r="702" x14ac:dyDescent="0.2">
       <c r="A702" s="0">
         <v>6.9999999999998952</v>
       </c>
@@ -12152,7 +12349,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="703">
+    <row r="703" x14ac:dyDescent="0.2">
       <c r="A703" s="0">
         <v>7.009999999999895</v>
       </c>
@@ -12169,7 +12366,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="704">
+    <row r="704" x14ac:dyDescent="0.2">
       <c r="A704" s="0">
         <v>7.0199999999998948</v>
       </c>
@@ -12186,7 +12383,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="705">
+    <row r="705" x14ac:dyDescent="0.2">
       <c r="A705" s="0">
         <v>7.0299999999998946</v>
       </c>
@@ -12203,7 +12400,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="706">
+    <row r="706" x14ac:dyDescent="0.2">
       <c r="A706" s="0">
         <v>7.0399999999998943</v>
       </c>
@@ -12220,7 +12417,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="707">
+    <row r="707" x14ac:dyDescent="0.2">
       <c r="A707" s="0">
         <v>7.0499999999998941</v>
       </c>
@@ -12237,7 +12434,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="708">
+    <row r="708" x14ac:dyDescent="0.2">
       <c r="A708" s="0">
         <v>7.0599999999998939</v>
       </c>
@@ -12254,7 +12451,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="709">
+    <row r="709" x14ac:dyDescent="0.2">
       <c r="A709" s="0">
         <v>7.0699999999998937</v>
       </c>
@@ -12271,7 +12468,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="710">
+    <row r="710" x14ac:dyDescent="0.2">
       <c r="A710" s="0">
         <v>7.0799999999998935</v>
       </c>
@@ -12288,7 +12485,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="711">
+    <row r="711" x14ac:dyDescent="0.2">
       <c r="A711" s="0">
         <v>7.0899999999998933</v>
       </c>
@@ -12305,7 +12502,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="712">
+    <row r="712" x14ac:dyDescent="0.2">
       <c r="A712" s="0">
         <v>7.0999999999998931</v>
       </c>
@@ -12322,7 +12519,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" x14ac:dyDescent="0.2">
       <c r="A713" s="0">
         <v>7.1099999999998929</v>
       </c>
@@ -12339,7 +12536,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="714">
+    <row r="714" x14ac:dyDescent="0.2">
       <c r="A714" s="0">
         <v>7.1199999999998926</v>
       </c>
@@ -12356,7 +12553,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="715">
+    <row r="715" x14ac:dyDescent="0.2">
       <c r="A715" s="0">
         <v>7.1299999999998924</v>
       </c>
@@ -12373,7 +12570,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="716">
+    <row r="716" x14ac:dyDescent="0.2">
       <c r="A716" s="0">
         <v>7.1399999999998922</v>
       </c>
@@ -12390,7 +12587,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="717">
+    <row r="717" x14ac:dyDescent="0.2">
       <c r="A717" s="0">
         <v>7.149999999999892</v>
       </c>
@@ -12407,7 +12604,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="718">
+    <row r="718" x14ac:dyDescent="0.2">
       <c r="A718" s="0">
         <v>7.1599999999998918</v>
       </c>
@@ -12424,7 +12621,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="719">
+    <row r="719" x14ac:dyDescent="0.2">
       <c r="A719" s="0">
         <v>7.1699999999998916</v>
       </c>
@@ -12441,7 +12638,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="720">
+    <row r="720" x14ac:dyDescent="0.2">
       <c r="A720" s="0">
         <v>7.1799999999998914</v>
       </c>
@@ -12458,7 +12655,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="721">
+    <row r="721" x14ac:dyDescent="0.2">
       <c r="A721" s="0">
         <v>7.1899999999998911</v>
       </c>
@@ -12475,7 +12672,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="722">
+    <row r="722" x14ac:dyDescent="0.2">
       <c r="A722" s="0">
         <v>7.1999999999998909</v>
       </c>
@@ -12492,7 +12689,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="723">
+    <row r="723" x14ac:dyDescent="0.2">
       <c r="A723" s="0">
         <v>7.2099999999998907</v>
       </c>
@@ -12509,7 +12706,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="724">
+    <row r="724" x14ac:dyDescent="0.2">
       <c r="A724" s="0">
         <v>7.2199999999998905</v>
       </c>
@@ -12526,7 +12723,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="725">
+    <row r="725" x14ac:dyDescent="0.2">
       <c r="A725" s="0">
         <v>7.2299999999998903</v>
       </c>
@@ -12543,7 +12740,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="726">
+    <row r="726" x14ac:dyDescent="0.2">
       <c r="A726" s="0">
         <v>7.2399999999998901</v>
       </c>
@@ -12560,7 +12757,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="727">
+    <row r="727" x14ac:dyDescent="0.2">
       <c r="A727" s="0">
         <v>7.2499999999998899</v>
       </c>
@@ -12577,7 +12774,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="728">
+    <row r="728" x14ac:dyDescent="0.2">
       <c r="A728" s="0">
         <v>7.2599999999998897</v>
       </c>
@@ -12594,7 +12791,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="729">
+    <row r="729" x14ac:dyDescent="0.2">
       <c r="A729" s="0">
         <v>7.2699999999998894</v>
       </c>
@@ -12611,7 +12808,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="730">
+    <row r="730" x14ac:dyDescent="0.2">
       <c r="A730" s="0">
         <v>7.2799999999998892</v>
       </c>
@@ -12628,7 +12825,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="731">
+    <row r="731" x14ac:dyDescent="0.2">
       <c r="A731" s="0">
         <v>7.289999999999889</v>
       </c>
@@ -12645,7 +12842,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="732">
+    <row r="732" x14ac:dyDescent="0.2">
       <c r="A732" s="0">
         <v>7.2999999999998888</v>
       </c>
@@ -12662,7 +12859,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="733">
+    <row r="733" x14ac:dyDescent="0.2">
       <c r="A733" s="0">
         <v>7.3099999999998886</v>
       </c>
@@ -12679,7 +12876,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="734">
+    <row r="734" x14ac:dyDescent="0.2">
       <c r="A734" s="0">
         <v>7.3199999999998884</v>
       </c>
@@ -12696,7 +12893,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="735">
+    <row r="735" x14ac:dyDescent="0.2">
       <c r="A735" s="0">
         <v>7.3299999999998882</v>
       </c>
@@ -12713,7 +12910,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="736">
+    <row r="736" x14ac:dyDescent="0.2">
       <c r="A736" s="0">
         <v>7.3399999999998879</v>
       </c>
@@ -12730,7 +12927,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="737">
+    <row r="737" x14ac:dyDescent="0.2">
       <c r="A737" s="0">
         <v>7.3499999999998877</v>
       </c>
@@ -12747,7 +12944,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="738">
+    <row r="738" x14ac:dyDescent="0.2">
       <c r="A738" s="0">
         <v>7.3599999999998875</v>
       </c>
@@ -12764,7 +12961,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="739">
+    <row r="739" x14ac:dyDescent="0.2">
       <c r="A739" s="0">
         <v>7.3699999999998873</v>
       </c>
@@ -12781,7 +12978,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="740">
+    <row r="740" x14ac:dyDescent="0.2">
       <c r="A740" s="0">
         <v>7.3799999999998871</v>
       </c>
@@ -12798,7 +12995,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="741">
+    <row r="741" x14ac:dyDescent="0.2">
       <c r="A741" s="0">
         <v>7.3899999999998869</v>
       </c>
@@ -12815,7 +13012,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="742">
+    <row r="742" x14ac:dyDescent="0.2">
       <c r="A742" s="0">
         <v>7.3999999999998867</v>
       </c>
@@ -12832,7 +13029,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="743">
+    <row r="743" x14ac:dyDescent="0.2">
       <c r="A743" s="0">
         <v>7.4099999999998865</v>
       </c>
@@ -12849,7 +13046,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="744">
+    <row r="744" x14ac:dyDescent="0.2">
       <c r="A744" s="0">
         <v>7.4199999999998862</v>
       </c>
@@ -12866,7 +13063,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="745">
+    <row r="745" x14ac:dyDescent="0.2">
       <c r="A745" s="0">
         <v>7.429999999999886</v>
       </c>
@@ -12883,7 +13080,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="746">
+    <row r="746" x14ac:dyDescent="0.2">
       <c r="A746" s="0">
         <v>7.4399999999998858</v>
       </c>
@@ -12900,7 +13097,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="747">
+    <row r="747" x14ac:dyDescent="0.2">
       <c r="A747" s="0">
         <v>7.4499999999998856</v>
       </c>
@@ -12917,7 +13114,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="748">
+    <row r="748" x14ac:dyDescent="0.2">
       <c r="A748" s="0">
         <v>7.4599999999998854</v>
       </c>
@@ -12934,7 +13131,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="749">
+    <row r="749" x14ac:dyDescent="0.2">
       <c r="A749" s="0">
         <v>7.4699999999998852</v>
       </c>
@@ -12951,7 +13148,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="750">
+    <row r="750" x14ac:dyDescent="0.2">
       <c r="A750" s="0">
         <v>7.479999999999885</v>
       </c>
@@ -12968,7 +13165,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="751">
+    <row r="751" x14ac:dyDescent="0.2">
       <c r="A751" s="0">
         <v>7.4899999999998847</v>
       </c>
@@ -12985,7 +13182,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="752">
+    <row r="752" x14ac:dyDescent="0.2">
       <c r="A752" s="0">
         <v>7.4999999999998845</v>
       </c>
@@ -13002,7 +13199,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="753">
+    <row r="753" x14ac:dyDescent="0.2">
       <c r="A753" s="0">
         <v>7.5099999999998843</v>
       </c>
@@ -13019,7 +13216,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="754">
+    <row r="754" x14ac:dyDescent="0.2">
       <c r="A754" s="0">
         <v>7.5199999999998841</v>
       </c>
@@ -13036,7 +13233,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="755">
+    <row r="755" x14ac:dyDescent="0.2">
       <c r="A755" s="0">
         <v>7.5299999999998839</v>
       </c>
@@ -13053,7 +13250,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="756">
+    <row r="756" x14ac:dyDescent="0.2">
       <c r="A756" s="0">
         <v>7.5399999999998837</v>
       </c>
@@ -13070,7 +13267,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="757">
+    <row r="757" x14ac:dyDescent="0.2">
       <c r="A757" s="0">
         <v>7.5499999999998835</v>
       </c>
@@ -13087,7 +13284,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="758">
+    <row r="758" x14ac:dyDescent="0.2">
       <c r="A758" s="0">
         <v>7.5599999999998833</v>
       </c>
@@ -13104,7 +13301,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="759">
+    <row r="759" x14ac:dyDescent="0.2">
       <c r="A759" s="0">
         <v>7.569999999999883</v>
       </c>
@@ -13121,7 +13318,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="760">
+    <row r="760" x14ac:dyDescent="0.2">
       <c r="A760" s="0">
         <v>7.5799999999998828</v>
       </c>
@@ -13138,7 +13335,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="761">
+    <row r="761" x14ac:dyDescent="0.2">
       <c r="A761" s="0">
         <v>7.5899999999998826</v>
       </c>
@@ -13155,7 +13352,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="762">
+    <row r="762" x14ac:dyDescent="0.2">
       <c r="A762" s="0">
         <v>7.5999999999998824</v>
       </c>
@@ -13172,7 +13369,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="763">
+    <row r="763" x14ac:dyDescent="0.2">
       <c r="A763" s="0">
         <v>7.6099999999998822</v>
       </c>
@@ -13189,7 +13386,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="764">
+    <row r="764" x14ac:dyDescent="0.2">
       <c r="A764" s="0">
         <v>7.619999999999882</v>
       </c>
@@ -13206,7 +13403,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="765">
+    <row r="765" x14ac:dyDescent="0.2">
       <c r="A765" s="0">
         <v>7.6299999999998818</v>
       </c>
@@ -13223,7 +13420,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="766">
+    <row r="766" x14ac:dyDescent="0.2">
       <c r="A766" s="0">
         <v>7.6399999999998816</v>
       </c>
@@ -13240,7 +13437,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="767">
+    <row r="767" x14ac:dyDescent="0.2">
       <c r="A767" s="0">
         <v>7.6499999999998813</v>
       </c>
@@ -13257,7 +13454,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="768">
+    <row r="768" x14ac:dyDescent="0.2">
       <c r="A768" s="0">
         <v>7.6599999999998811</v>
       </c>
@@ -13274,7 +13471,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="769">
+    <row r="769" x14ac:dyDescent="0.2">
       <c r="A769" s="0">
         <v>7.6699999999998809</v>
       </c>
@@ -13291,7 +13488,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="770">
+    <row r="770" x14ac:dyDescent="0.2">
       <c r="A770" s="0">
         <v>7.6799999999998807</v>
       </c>
@@ -13308,7 +13505,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="771">
+    <row r="771" x14ac:dyDescent="0.2">
       <c r="A771" s="0">
         <v>7.6899999999998805</v>
       </c>
@@ -13325,7 +13522,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="772">
+    <row r="772" x14ac:dyDescent="0.2">
       <c r="A772" s="0">
         <v>7.6999999999998803</v>
       </c>
@@ -13342,7 +13539,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="773">
+    <row r="773" x14ac:dyDescent="0.2">
       <c r="A773" s="0">
         <v>7.7099999999998801</v>
       </c>
@@ -13359,7 +13556,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="774">
+    <row r="774" x14ac:dyDescent="0.2">
       <c r="A774" s="0">
         <v>7.7199999999998798</v>
       </c>
@@ -13376,7 +13573,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="775">
+    <row r="775" x14ac:dyDescent="0.2">
       <c r="A775" s="0">
         <v>7.7299999999998796</v>
       </c>
@@ -13393,7 +13590,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="776">
+    <row r="776" x14ac:dyDescent="0.2">
       <c r="A776" s="0">
         <v>7.7399999999998794</v>
       </c>
@@ -13410,7 +13607,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="777">
+    <row r="777" x14ac:dyDescent="0.2">
       <c r="A777" s="0">
         <v>7.7499999999998792</v>
       </c>
@@ -13427,7 +13624,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="778">
+    <row r="778" x14ac:dyDescent="0.2">
       <c r="A778" s="0">
         <v>7.759999999999879</v>
       </c>
@@ -13444,7 +13641,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="779">
+    <row r="779" x14ac:dyDescent="0.2">
       <c r="A779" s="0">
         <v>7.7699999999998788</v>
       </c>
@@ -13461,7 +13658,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="780">
+    <row r="780" x14ac:dyDescent="0.2">
       <c r="A780" s="0">
         <v>7.7799999999998786</v>
       </c>
@@ -13478,7 +13675,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="781">
+    <row r="781" x14ac:dyDescent="0.2">
       <c r="A781" s="0">
         <v>7.7899999999998784</v>
       </c>
@@ -13495,7 +13692,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="782">
+    <row r="782" x14ac:dyDescent="0.2">
       <c r="A782" s="0">
         <v>7.7999999999998781</v>
       </c>
@@ -13512,7 +13709,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="783">
+    <row r="783" x14ac:dyDescent="0.2">
       <c r="A783" s="0">
         <v>7.8099999999998779</v>
       </c>
@@ -13529,7 +13726,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="784">
+    <row r="784" x14ac:dyDescent="0.2">
       <c r="A784" s="0">
         <v>7.8199999999998777</v>
       </c>
@@ -13546,7 +13743,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="785">
+    <row r="785" x14ac:dyDescent="0.2">
       <c r="A785" s="0">
         <v>7.8299999999998775</v>
       </c>
@@ -13563,7 +13760,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="786">
+    <row r="786" x14ac:dyDescent="0.2">
       <c r="A786" s="0">
         <v>7.8399999999998773</v>
       </c>
@@ -13580,7 +13777,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="787">
+    <row r="787" x14ac:dyDescent="0.2">
       <c r="A787" s="0">
         <v>7.8499999999998771</v>
       </c>
@@ -13597,7 +13794,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="788">
+    <row r="788" x14ac:dyDescent="0.2">
       <c r="A788" s="0">
         <v>7.8599999999998769</v>
       </c>
@@ -13614,7 +13811,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="789">
+    <row r="789" x14ac:dyDescent="0.2">
       <c r="A789" s="0">
         <v>7.8699999999998766</v>
       </c>
@@ -13631,7 +13828,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="790">
+    <row r="790" x14ac:dyDescent="0.2">
       <c r="A790" s="0">
         <v>7.8799999999998764</v>
       </c>
@@ -13648,7 +13845,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="791">
+    <row r="791" x14ac:dyDescent="0.2">
       <c r="A791" s="0">
         <v>7.8899999999998762</v>
       </c>
@@ -13665,7 +13862,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="792">
+    <row r="792" x14ac:dyDescent="0.2">
       <c r="A792" s="0">
         <v>7.899999999999876</v>
       </c>
@@ -13682,7 +13879,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="793">
+    <row r="793" x14ac:dyDescent="0.2">
       <c r="A793" s="0">
         <v>7.9099999999998758</v>
       </c>
@@ -13699,7 +13896,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="794">
+    <row r="794" x14ac:dyDescent="0.2">
       <c r="A794" s="0">
         <v>7.9199999999998756</v>
       </c>
@@ -13716,7 +13913,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="795">
+    <row r="795" x14ac:dyDescent="0.2">
       <c r="A795" s="0">
         <v>7.9299999999998754</v>
       </c>
@@ -13733,7 +13930,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="796">
+    <row r="796" x14ac:dyDescent="0.2">
       <c r="A796" s="0">
         <v>7.9399999999998752</v>
       </c>
@@ -13750,7 +13947,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="797">
+    <row r="797" x14ac:dyDescent="0.2">
       <c r="A797" s="0">
         <v>7.9499999999998749</v>
       </c>
@@ -13767,7 +13964,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="798">
+    <row r="798" x14ac:dyDescent="0.2">
       <c r="A798" s="0">
         <v>7.9599999999998747</v>
       </c>
@@ -13784,7 +13981,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="799">
+    <row r="799" x14ac:dyDescent="0.2">
       <c r="A799" s="0">
         <v>7.9699999999998745</v>
       </c>
@@ -13801,7 +13998,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="800">
+    <row r="800" x14ac:dyDescent="0.2">
       <c r="A800" s="0">
         <v>7.9799999999998743</v>
       </c>
@@ -13818,7 +14015,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="801">
+    <row r="801" x14ac:dyDescent="0.2">
       <c r="A801" s="0">
         <v>7.9899999999998741</v>
       </c>
@@ -13835,7 +14032,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="802">
+    <row r="802" x14ac:dyDescent="0.2">
       <c r="A802" s="0">
         <v>7.9999999999998739</v>
       </c>
@@ -13852,7 +14049,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="803">
+    <row r="803" x14ac:dyDescent="0.2">
       <c r="A803" s="0">
         <v>8.0099999999998737</v>
       </c>
@@ -13869,7 +14066,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="804">
+    <row r="804" x14ac:dyDescent="0.2">
       <c r="A804" s="0">
         <v>8.0199999999998735</v>
       </c>
@@ -13886,7 +14083,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="805">
+    <row r="805" x14ac:dyDescent="0.2">
       <c r="A805" s="0">
         <v>8.0299999999998732</v>
       </c>
@@ -13903,7 +14100,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="806">
+    <row r="806" x14ac:dyDescent="0.2">
       <c r="A806" s="0">
         <v>8.039999999999873</v>
       </c>
@@ -13920,7 +14117,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="807">
+    <row r="807" x14ac:dyDescent="0.2">
       <c r="A807" s="0">
         <v>8.0499999999998728</v>
       </c>
@@ -13937,7 +14134,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="808">
+    <row r="808" x14ac:dyDescent="0.2">
       <c r="A808" s="0">
         <v>8.0599999999998726</v>
       </c>
@@ -13954,7 +14151,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="809">
+    <row r="809" x14ac:dyDescent="0.2">
       <c r="A809" s="0">
         <v>8.0699999999998724</v>
       </c>
@@ -13971,7 +14168,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="810">
+    <row r="810" x14ac:dyDescent="0.2">
       <c r="A810" s="0">
         <v>8.0799999999998722</v>
       </c>
@@ -13988,7 +14185,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="811">
+    <row r="811" x14ac:dyDescent="0.2">
       <c r="A811" s="0">
         <v>8.089999999999872</v>
       </c>
@@ -14005,7 +14202,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="812">
+    <row r="812" x14ac:dyDescent="0.2">
       <c r="A812" s="0">
         <v>8.0999999999998717</v>
       </c>
@@ -14022,7 +14219,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="813">
+    <row r="813" x14ac:dyDescent="0.2">
       <c r="A813" s="0">
         <v>8.1099999999998715</v>
       </c>
@@ -14039,7 +14236,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="814">
+    <row r="814" x14ac:dyDescent="0.2">
       <c r="A814" s="0">
         <v>8.1199999999998713</v>
       </c>
@@ -14056,7 +14253,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="815">
+    <row r="815" x14ac:dyDescent="0.2">
       <c r="A815" s="0">
         <v>8.1299999999998711</v>
       </c>
@@ -14073,7 +14270,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="816">
+    <row r="816" x14ac:dyDescent="0.2">
       <c r="A816" s="0">
         <v>8.1399999999998709</v>
       </c>
@@ -14090,7 +14287,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="817">
+    <row r="817" x14ac:dyDescent="0.2">
       <c r="A817" s="0">
         <v>8.1499999999998707</v>
       </c>
@@ -14107,7 +14304,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="818">
+    <row r="818" x14ac:dyDescent="0.2">
       <c r="A818" s="0">
         <v>8.1599999999998705</v>
       </c>
@@ -14124,7 +14321,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="819">
+    <row r="819" x14ac:dyDescent="0.2">
       <c r="A819" s="0">
         <v>8.1699999999998703</v>
       </c>
@@ -14141,7 +14338,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="820">
+    <row r="820" x14ac:dyDescent="0.2">
       <c r="A820" s="0">
         <v>8.17999999999987</v>
       </c>
@@ -14158,7 +14355,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="821">
+    <row r="821" x14ac:dyDescent="0.2">
       <c r="A821" s="0">
         <v>8.1899999999998698</v>
       </c>
@@ -14175,7 +14372,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="822">
+    <row r="822" x14ac:dyDescent="0.2">
       <c r="A822" s="0">
         <v>8.1999999999998696</v>
       </c>
@@ -14192,7 +14389,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="823">
+    <row r="823" x14ac:dyDescent="0.2">
       <c r="A823" s="0">
         <v>8.2099999999998694</v>
       </c>
@@ -14209,7 +14406,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="824">
+    <row r="824" x14ac:dyDescent="0.2">
       <c r="A824" s="0">
         <v>8.2199999999998692</v>
       </c>
@@ -14226,7 +14423,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="825">
+    <row r="825" x14ac:dyDescent="0.2">
       <c r="A825" s="0">
         <v>8.229999999999869</v>
       </c>
@@ -14243,7 +14440,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="826">
+    <row r="826" x14ac:dyDescent="0.2">
       <c r="A826" s="0">
         <v>8.2399999999998688</v>
       </c>
@@ -14260,7 +14457,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="827">
+    <row r="827" x14ac:dyDescent="0.2">
       <c r="A827" s="0">
         <v>8.2499999999998685</v>
       </c>
@@ -14277,7 +14474,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="828">
+    <row r="828" x14ac:dyDescent="0.2">
       <c r="A828" s="0">
         <v>8.2599999999998683</v>
       </c>
@@ -14294,7 +14491,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="829">
+    <row r="829" x14ac:dyDescent="0.2">
       <c r="A829" s="0">
         <v>8.2699999999998681</v>
       </c>
@@ -14311,7 +14508,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="830">
+    <row r="830" x14ac:dyDescent="0.2">
       <c r="A830" s="0">
         <v>8.2799999999998679</v>
       </c>
@@ -14328,7 +14525,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="831">
+    <row r="831" x14ac:dyDescent="0.2">
       <c r="A831" s="0">
         <v>8.2899999999998677</v>
       </c>
@@ -14345,7 +14542,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="832">
+    <row r="832" x14ac:dyDescent="0.2">
       <c r="A832" s="0">
         <v>8.2999999999998675</v>
       </c>
@@ -14362,7 +14559,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="833">
+    <row r="833" x14ac:dyDescent="0.2">
       <c r="A833" s="0">
         <v>8.3099999999998673</v>
       </c>
@@ -14379,7 +14576,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="834">
+    <row r="834" x14ac:dyDescent="0.2">
       <c r="A834" s="0">
         <v>8.3199999999998671</v>
       </c>
@@ -14396,7 +14593,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="835">
+    <row r="835" x14ac:dyDescent="0.2">
       <c r="A835" s="0">
         <v>8.3299999999998668</v>
       </c>
@@ -14413,7 +14610,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="836">
+    <row r="836" x14ac:dyDescent="0.2">
       <c r="A836" s="0">
         <v>8.3399999999998666</v>
       </c>
@@ -14430,7 +14627,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="837">
+    <row r="837" x14ac:dyDescent="0.2">
       <c r="A837" s="0">
         <v>8.3499999999998664</v>
       </c>
@@ -14447,7 +14644,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="838">
+    <row r="838" x14ac:dyDescent="0.2">
       <c r="A838" s="0">
         <v>8.3599999999998662</v>
       </c>
@@ -14464,7 +14661,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="839">
+    <row r="839" x14ac:dyDescent="0.2">
       <c r="A839" s="0">
         <v>8.369999999999866</v>
       </c>
@@ -14481,7 +14678,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="840">
+    <row r="840" x14ac:dyDescent="0.2">
       <c r="A840" s="0">
         <v>8.3799999999998658</v>
       </c>
@@ -14498,7 +14695,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="841">
+    <row r="841" x14ac:dyDescent="0.2">
       <c r="A841" s="0">
         <v>8.3899999999998656</v>
       </c>
@@ -14515,7 +14712,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="842">
+    <row r="842" x14ac:dyDescent="0.2">
       <c r="A842" s="0">
         <v>8.3999999999998654</v>
       </c>
@@ -14532,7 +14729,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="843">
+    <row r="843" x14ac:dyDescent="0.2">
       <c r="A843" s="0">
         <v>8.4099999999998651</v>
       </c>
@@ -14549,7 +14746,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="844">
+    <row r="844" x14ac:dyDescent="0.2">
       <c r="A844" s="0">
         <v>8.4199999999998649</v>
       </c>
@@ -14566,7 +14763,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="845">
+    <row r="845" x14ac:dyDescent="0.2">
       <c r="A845" s="0">
         <v>8.4299999999998647</v>
       </c>
@@ -14583,7 +14780,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="846">
+    <row r="846" x14ac:dyDescent="0.2">
       <c r="A846" s="0">
         <v>8.4399999999998645</v>
       </c>
@@ -14600,7 +14797,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="847">
+    <row r="847" x14ac:dyDescent="0.2">
       <c r="A847" s="0">
         <v>8.4499999999998643</v>
       </c>
@@ -14617,7 +14814,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="848">
+    <row r="848" x14ac:dyDescent="0.2">
       <c r="A848" s="0">
         <v>8.4599999999998641</v>
       </c>
@@ -14634,7 +14831,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="849">
+    <row r="849" x14ac:dyDescent="0.2">
       <c r="A849" s="0">
         <v>8.4699999999998639</v>
       </c>
@@ -14651,7 +14848,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="850">
+    <row r="850" x14ac:dyDescent="0.2">
       <c r="A850" s="0">
         <v>8.4799999999998636</v>
       </c>
@@ -14668,7 +14865,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="851">
+    <row r="851" x14ac:dyDescent="0.2">
       <c r="A851" s="0">
         <v>8.4899999999998634</v>
       </c>
@@ -14685,7 +14882,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="852">
+    <row r="852" x14ac:dyDescent="0.2">
       <c r="A852" s="0">
         <v>8.4999999999998632</v>
       </c>
@@ -14702,7 +14899,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="853">
+    <row r="853" x14ac:dyDescent="0.2">
       <c r="A853" s="0">
         <v>8.509999999999863</v>
       </c>
@@ -14719,7 +14916,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="854">
+    <row r="854" x14ac:dyDescent="0.2">
       <c r="A854" s="0">
         <v>8.5199999999998628</v>
       </c>
@@ -14736,7 +14933,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="855">
+    <row r="855" x14ac:dyDescent="0.2">
       <c r="A855" s="0">
         <v>8.5299999999998626</v>
       </c>
@@ -14753,7 +14950,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="856">
+    <row r="856" x14ac:dyDescent="0.2">
       <c r="A856" s="0">
         <v>8.5399999999998624</v>
       </c>
@@ -14770,7 +14967,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="857">
+    <row r="857" x14ac:dyDescent="0.2">
       <c r="A857" s="0">
         <v>8.5499999999998622</v>
       </c>
@@ -14787,7 +14984,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="858">
+    <row r="858" x14ac:dyDescent="0.2">
       <c r="A858" s="0">
         <v>8.5599999999998619</v>
       </c>
@@ -14804,7 +15001,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="859">
+    <row r="859" x14ac:dyDescent="0.2">
       <c r="A859" s="0">
         <v>8.5699999999998617</v>
       </c>
@@ -14821,7 +15018,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="860">
+    <row r="860" x14ac:dyDescent="0.2">
       <c r="A860" s="0">
         <v>8.5799999999998615</v>
       </c>
@@ -14838,7 +15035,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="861">
+    <row r="861" x14ac:dyDescent="0.2">
       <c r="A861" s="0">
         <v>8.5899999999998613</v>
       </c>
@@ -14855,7 +15052,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="862">
+    <row r="862" x14ac:dyDescent="0.2">
       <c r="A862" s="0">
         <v>8.5999999999998611</v>
       </c>
@@ -14872,7 +15069,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="863">
+    <row r="863" x14ac:dyDescent="0.2">
       <c r="A863" s="0">
         <v>8.6099999999998609</v>
       </c>
@@ -14889,7 +15086,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="864">
+    <row r="864" x14ac:dyDescent="0.2">
       <c r="A864" s="0">
         <v>8.6199999999998607</v>
       </c>
@@ -14906,7 +15103,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="865">
+    <row r="865" x14ac:dyDescent="0.2">
       <c r="A865" s="0">
         <v>8.6299999999998604</v>
       </c>
@@ -14923,7 +15120,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="866">
+    <row r="866" x14ac:dyDescent="0.2">
       <c r="A866" s="0">
         <v>8.6399999999998602</v>
       </c>
@@ -14940,7 +15137,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="867">
+    <row r="867" x14ac:dyDescent="0.2">
       <c r="A867" s="0">
         <v>8.64999999999986</v>
       </c>
@@ -14957,7 +15154,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="868">
+    <row r="868" x14ac:dyDescent="0.2">
       <c r="A868" s="0">
         <v>8.6599999999998598</v>
       </c>
@@ -14974,7 +15171,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="869">
+    <row r="869" x14ac:dyDescent="0.2">
       <c r="A869" s="0">
         <v>8.6699999999998596</v>
       </c>
@@ -14991,7 +15188,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="870">
+    <row r="870" x14ac:dyDescent="0.2">
       <c r="A870" s="0">
         <v>8.6799999999998594</v>
       </c>
@@ -15008,7 +15205,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="871">
+    <row r="871" x14ac:dyDescent="0.2">
       <c r="A871" s="0">
         <v>8.6899999999998592</v>
       </c>
@@ -15025,7 +15222,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="872">
+    <row r="872" x14ac:dyDescent="0.2">
       <c r="A872" s="0">
         <v>8.699999999999859</v>
       </c>
@@ -15042,7 +15239,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="873">
+    <row r="873" x14ac:dyDescent="0.2">
       <c r="A873" s="0">
         <v>8.7099999999998587</v>
       </c>
@@ -15059,7 +15256,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="874">
+    <row r="874" x14ac:dyDescent="0.2">
       <c r="A874" s="0">
         <v>8.7199999999998585</v>
       </c>
@@ -15076,7 +15273,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="875">
+    <row r="875" x14ac:dyDescent="0.2">
       <c r="A875" s="0">
         <v>8.7299999999998583</v>
       </c>
@@ -15093,7 +15290,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="876">
+    <row r="876" x14ac:dyDescent="0.2">
       <c r="A876" s="0">
         <v>8.7399999999998581</v>
       </c>
@@ -15110,7 +15307,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="877">
+    <row r="877" x14ac:dyDescent="0.2">
       <c r="A877" s="0">
         <v>8.7499999999998579</v>
       </c>
@@ -15127,7 +15324,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="878">
+    <row r="878" x14ac:dyDescent="0.2">
       <c r="A878" s="0">
         <v>8.7599999999998577</v>
       </c>
@@ -15144,7 +15341,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="879">
+    <row r="879" x14ac:dyDescent="0.2">
       <c r="A879" s="0">
         <v>8.7699999999998575</v>
       </c>
@@ -15161,7 +15358,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="880">
+    <row r="880" x14ac:dyDescent="0.2">
       <c r="A880" s="0">
         <v>8.7799999999998573</v>
       </c>
@@ -15178,7 +15375,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="881">
+    <row r="881" x14ac:dyDescent="0.2">
       <c r="A881" s="0">
         <v>8.789999999999857</v>
       </c>
@@ -15195,7 +15392,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="882">
+    <row r="882" x14ac:dyDescent="0.2">
       <c r="A882" s="0">
         <v>8.7999999999998568</v>
       </c>
@@ -15212,7 +15409,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="883">
+    <row r="883" x14ac:dyDescent="0.2">
       <c r="A883" s="0">
         <v>8.8099999999998566</v>
       </c>
@@ -15229,7 +15426,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="884">
+    <row r="884" x14ac:dyDescent="0.2">
       <c r="A884" s="0">
         <v>8.8199999999998564</v>
       </c>
@@ -15246,7 +15443,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="885">
+    <row r="885" x14ac:dyDescent="0.2">
       <c r="A885" s="0">
         <v>8.8299999999998562</v>
       </c>
@@ -15263,7 +15460,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="886">
+    <row r="886" x14ac:dyDescent="0.2">
       <c r="A886" s="0">
         <v>8.839999999999856</v>
       </c>
@@ -15280,7 +15477,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="887">
+    <row r="887" x14ac:dyDescent="0.2">
       <c r="A887" s="0">
         <v>8.8499999999998558</v>
       </c>
@@ -15297,7 +15494,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="888">
+    <row r="888" x14ac:dyDescent="0.2">
       <c r="A888" s="0">
         <v>8.8599999999998555</v>
       </c>
@@ -15314,7 +15511,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="889">
+    <row r="889" x14ac:dyDescent="0.2">
       <c r="A889" s="0">
         <v>8.8699999999998553</v>
       </c>
@@ -15331,7 +15528,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="890">
+    <row r="890" x14ac:dyDescent="0.2">
       <c r="A890" s="0">
         <v>8.8799999999998551</v>
       </c>
@@ -15348,7 +15545,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="891">
+    <row r="891" x14ac:dyDescent="0.2">
       <c r="A891" s="0">
         <v>8.8899999999998549</v>
       </c>
@@ -15365,7 +15562,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="892">
+    <row r="892" x14ac:dyDescent="0.2">
       <c r="A892" s="0">
         <v>8.8999999999998547</v>
       </c>
@@ -15382,7 +15579,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="893">
+    <row r="893" x14ac:dyDescent="0.2">
       <c r="A893" s="0">
         <v>8.9099999999998545</v>
       </c>
@@ -15399,7 +15596,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="894">
+    <row r="894" x14ac:dyDescent="0.2">
       <c r="A894" s="0">
         <v>8.9199999999998543</v>
       </c>
@@ -15416,7 +15613,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="895">
+    <row r="895" x14ac:dyDescent="0.2">
       <c r="A895" s="0">
         <v>8.9299999999998541</v>
       </c>
@@ -15433,7 +15630,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="896">
+    <row r="896" x14ac:dyDescent="0.2">
       <c r="A896" s="0">
         <v>8.9399999999998538</v>
       </c>
@@ -15450,7 +15647,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="897">
+    <row r="897" x14ac:dyDescent="0.2">
       <c r="A897" s="0">
         <v>8.9499999999998536</v>
       </c>
@@ -15467,7 +15664,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="898">
+    <row r="898" x14ac:dyDescent="0.2">
       <c r="A898" s="0">
         <v>8.9599999999998534</v>
       </c>
@@ -15484,7 +15681,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="899">
+    <row r="899" x14ac:dyDescent="0.2">
       <c r="A899" s="0">
         <v>8.9699999999998532</v>
       </c>
@@ -15501,7 +15698,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="900">
+    <row r="900" x14ac:dyDescent="0.2">
       <c r="A900" s="0">
         <v>8.979999999999853</v>
       </c>
@@ -15518,7 +15715,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="901">
+    <row r="901" x14ac:dyDescent="0.2">
       <c r="A901" s="0">
         <v>8.9899999999998528</v>
       </c>
@@ -15535,7 +15732,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="902">
+    <row r="902" x14ac:dyDescent="0.2">
       <c r="A902" s="0">
         <v>8.9999999999998526</v>
       </c>
@@ -15552,7 +15749,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="903">
+    <row r="903" x14ac:dyDescent="0.2">
       <c r="A903" s="0">
         <v>9.0099999999998523</v>
       </c>
@@ -15569,7 +15766,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="904">
+    <row r="904" x14ac:dyDescent="0.2">
       <c r="A904" s="0">
         <v>9.0199999999998521</v>
       </c>
@@ -15586,7 +15783,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="905">
+    <row r="905" x14ac:dyDescent="0.2">
       <c r="A905" s="0">
         <v>9.0299999999998519</v>
       </c>
@@ -15603,7 +15800,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="906">
+    <row r="906" x14ac:dyDescent="0.2">
       <c r="A906" s="0">
         <v>9.0399999999998517</v>
       </c>
@@ -15620,7 +15817,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="907">
+    <row r="907" x14ac:dyDescent="0.2">
       <c r="A907" s="0">
         <v>9.0499999999998515</v>
       </c>
@@ -15637,7 +15834,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="908">
+    <row r="908" x14ac:dyDescent="0.2">
       <c r="A908" s="0">
         <v>9.0599999999998513</v>
       </c>
@@ -15654,7 +15851,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="909">
+    <row r="909" x14ac:dyDescent="0.2">
       <c r="A909" s="0">
         <v>9.0699999999998511</v>
       </c>
@@ -15671,7 +15868,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="910">
+    <row r="910" x14ac:dyDescent="0.2">
       <c r="A910" s="0">
         <v>9.0799999999998509</v>
       </c>
@@ -15688,7 +15885,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="911">
+    <row r="911" x14ac:dyDescent="0.2">
       <c r="A911" s="0">
         <v>9.0899999999998506</v>
       </c>
@@ -15705,7 +15902,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="912">
+    <row r="912" x14ac:dyDescent="0.2">
       <c r="A912" s="0">
         <v>9.0999999999998504</v>
       </c>
@@ -15722,7 +15919,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="913">
+    <row r="913" x14ac:dyDescent="0.2">
       <c r="A913" s="0">
         <v>9.1099999999998502</v>
       </c>
@@ -15739,7 +15936,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="914">
+    <row r="914" x14ac:dyDescent="0.2">
       <c r="A914" s="0">
         <v>9.11999999999985</v>
       </c>
@@ -15756,7 +15953,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="915">
+    <row r="915" x14ac:dyDescent="0.2">
       <c r="A915" s="0">
         <v>9.1299999999998498</v>
       </c>
@@ -15773,7 +15970,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="916">
+    <row r="916" x14ac:dyDescent="0.2">
       <c r="A916" s="0">
         <v>9.1399999999998496</v>
       </c>
@@ -15790,7 +15987,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="917">
+    <row r="917" x14ac:dyDescent="0.2">
       <c r="A917" s="0">
         <v>9.1499999999998494</v>
       </c>
@@ -15807,7 +16004,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="918">
+    <row r="918" x14ac:dyDescent="0.2">
       <c r="A918" s="0">
         <v>9.1599999999998492</v>
       </c>
@@ -15824,7 +16021,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="919">
+    <row r="919" x14ac:dyDescent="0.2">
       <c r="A919" s="0">
         <v>9.1699999999998489</v>
       </c>
@@ -15841,7 +16038,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="920">
+    <row r="920" x14ac:dyDescent="0.2">
       <c r="A920" s="0">
         <v>9.1799999999998487</v>
       </c>
@@ -15858,7 +16055,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="921">
+    <row r="921" x14ac:dyDescent="0.2">
       <c r="A921" s="0">
         <v>9.1899999999998485</v>
       </c>
@@ -15875,7 +16072,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="922">
+    <row r="922" x14ac:dyDescent="0.2">
       <c r="A922" s="0">
         <v>9.1999999999998483</v>
       </c>
@@ -15892,7 +16089,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="923">
+    <row r="923" x14ac:dyDescent="0.2">
       <c r="A923" s="0">
         <v>9.2099999999998481</v>
       </c>
@@ -15909,7 +16106,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="924">
+    <row r="924" x14ac:dyDescent="0.2">
       <c r="A924" s="0">
         <v>9.2199999999998479</v>
       </c>
@@ -15926,7 +16123,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="925">
+    <row r="925" x14ac:dyDescent="0.2">
       <c r="A925" s="0">
         <v>9.2299999999998477</v>
       </c>
@@ -15943,7 +16140,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="926">
+    <row r="926" x14ac:dyDescent="0.2">
       <c r="A926" s="0">
         <v>9.2399999999998474</v>
       </c>
@@ -15960,7 +16157,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="927">
+    <row r="927" x14ac:dyDescent="0.2">
       <c r="A927" s="0">
         <v>9.2499999999998472</v>
       </c>
@@ -15977,7 +16174,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="928">
+    <row r="928" x14ac:dyDescent="0.2">
       <c r="A928" s="0">
         <v>9.259999999999847</v>
       </c>
@@ -15994,7 +16191,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="929">
+    <row r="929" x14ac:dyDescent="0.2">
       <c r="A929" s="0">
         <v>9.2699999999998468</v>
       </c>
@@ -16011,7 +16208,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="930">
+    <row r="930" x14ac:dyDescent="0.2">
       <c r="A930" s="0">
         <v>9.2799999999998466</v>
       </c>
@@ -16028,7 +16225,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="931">
+    <row r="931" x14ac:dyDescent="0.2">
       <c r="A931" s="0">
         <v>9.2899999999998464</v>
       </c>
@@ -16045,7 +16242,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="932">
+    <row r="932" x14ac:dyDescent="0.2">
       <c r="A932" s="0">
         <v>9.2999999999998462</v>
       </c>
@@ -16062,7 +16259,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="933">
+    <row r="933" x14ac:dyDescent="0.2">
       <c r="A933" s="0">
         <v>9.309999999999846</v>
       </c>
@@ -16079,7 +16276,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="934">
+    <row r="934" x14ac:dyDescent="0.2">
       <c r="A934" s="0">
         <v>9.3199999999998457</v>
       </c>
@@ -16096,7 +16293,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="935">
+    <row r="935" x14ac:dyDescent="0.2">
       <c r="A935" s="0">
         <v>9.3299999999998455</v>
       </c>
@@ -16113,7 +16310,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="936">
+    <row r="936" x14ac:dyDescent="0.2">
       <c r="A936" s="0">
         <v>9.3399999999998453</v>
       </c>
@@ -16130,7 +16327,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="937">
+    <row r="937" x14ac:dyDescent="0.2">
       <c r="A937" s="0">
         <v>9.3499999999998451</v>
       </c>
@@ -16147,7 +16344,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="938">
+    <row r="938" x14ac:dyDescent="0.2">
       <c r="A938" s="0">
         <v>9.3599999999998449</v>
       </c>
@@ -16164,7 +16361,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="939">
+    <row r="939" x14ac:dyDescent="0.2">
       <c r="A939" s="0">
         <v>9.3699999999998447</v>
       </c>
@@ -16181,7 +16378,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="940">
+    <row r="940" x14ac:dyDescent="0.2">
       <c r="A940" s="0">
         <v>9.3799999999998445</v>
       </c>
@@ -16198,7 +16395,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="941">
+    <row r="941" x14ac:dyDescent="0.2">
       <c r="A941" s="0">
         <v>9.3899999999998442</v>
       </c>
@@ -16215,7 +16412,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="942">
+    <row r="942" x14ac:dyDescent="0.2">
       <c r="A942" s="0">
         <v>9.399999999999844</v>
       </c>
@@ -16232,7 +16429,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="943">
+    <row r="943" x14ac:dyDescent="0.2">
       <c r="A943" s="0">
         <v>9.4099999999998438</v>
       </c>
@@ -16249,7 +16446,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="944">
+    <row r="944" x14ac:dyDescent="0.2">
       <c r="A944" s="0">
         <v>9.4199999999998436</v>
       </c>
@@ -16266,7 +16463,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="945">
+    <row r="945" x14ac:dyDescent="0.2">
       <c r="A945" s="0">
         <v>9.4299999999998434</v>
       </c>
@@ -16283,7 +16480,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="946">
+    <row r="946" x14ac:dyDescent="0.2">
       <c r="A946" s="0">
         <v>9.4399999999998432</v>
       </c>
@@ -16300,7 +16497,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="947">
+    <row r="947" x14ac:dyDescent="0.2">
       <c r="A947" s="0">
         <v>9.449999999999843</v>
       </c>
@@ -16317,7 +16514,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="948">
+    <row r="948" x14ac:dyDescent="0.2">
       <c r="A948" s="0">
         <v>9.4599999999998428</v>
       </c>
@@ -16334,7 +16531,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="949">
+    <row r="949" x14ac:dyDescent="0.2">
       <c r="A949" s="0">
         <v>9.4699999999998425</v>
       </c>
@@ -16351,7 +16548,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="950">
+    <row r="950" x14ac:dyDescent="0.2">
       <c r="A950" s="0">
         <v>9.4799999999998423</v>
       </c>
@@ -16368,7 +16565,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="951">
+    <row r="951" x14ac:dyDescent="0.2">
       <c r="A951" s="0">
         <v>9.4899999999998421</v>
       </c>
@@ -16385,7 +16582,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="952">
+    <row r="952" x14ac:dyDescent="0.2">
       <c r="A952" s="0">
         <v>9.4999999999998419</v>
       </c>
@@ -16402,7 +16599,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="953">
+    <row r="953" x14ac:dyDescent="0.2">
       <c r="A953" s="0">
         <v>9.5099999999998417</v>
       </c>
@@ -16419,7 +16616,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="954">
+    <row r="954" x14ac:dyDescent="0.2">
       <c r="A954" s="0">
         <v>9.5199999999998415</v>
       </c>
@@ -16436,7 +16633,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="955">
+    <row r="955" x14ac:dyDescent="0.2">
       <c r="A955" s="0">
         <v>9.5299999999998413</v>
       </c>
@@ -16453,7 +16650,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="956">
+    <row r="956" x14ac:dyDescent="0.2">
       <c r="A956" s="0">
         <v>9.5399999999998411</v>
       </c>
@@ -16470,7 +16667,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="957">
+    <row r="957" x14ac:dyDescent="0.2">
       <c r="A957" s="0">
         <v>9.5499999999998408</v>
       </c>
@@ -16487,7 +16684,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="958">
+    <row r="958" x14ac:dyDescent="0.2">
       <c r="A958" s="0">
         <v>9.5599999999998406</v>
       </c>
@@ -16504,7 +16701,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="959">
+    <row r="959" x14ac:dyDescent="0.2">
       <c r="A959" s="0">
         <v>9.5699999999998404</v>
       </c>
@@ -16521,7 +16718,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="960">
+    <row r="960" x14ac:dyDescent="0.2">
       <c r="A960" s="0">
         <v>9.5799999999998402</v>
       </c>
@@ -16538,7 +16735,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="961">
+    <row r="961" x14ac:dyDescent="0.2">
       <c r="A961" s="0">
         <v>9.58999999999984</v>
       </c>
@@ -16555,7 +16752,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="962">
+    <row r="962" x14ac:dyDescent="0.2">
       <c r="A962" s="0">
         <v>9.5999999999998398</v>
       </c>
@@ -16572,7 +16769,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="963">
+    <row r="963" x14ac:dyDescent="0.2">
       <c r="A963" s="0">
         <v>9.6099999999998396</v>
       </c>
@@ -16589,7 +16786,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="964">
+    <row r="964" x14ac:dyDescent="0.2">
       <c r="A964" s="0">
         <v>9.6199999999998393</v>
       </c>
@@ -16606,7 +16803,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="965">
+    <row r="965" x14ac:dyDescent="0.2">
       <c r="A965" s="0">
         <v>9.6299999999998391</v>
       </c>
@@ -16623,7 +16820,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="966">
+    <row r="966" x14ac:dyDescent="0.2">
       <c r="A966" s="0">
         <v>9.6399999999998389</v>
       </c>
@@ -16640,7 +16837,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="967">
+    <row r="967" x14ac:dyDescent="0.2">
       <c r="A967" s="0">
         <v>9.6499999999998387</v>
       </c>
@@ -16657,7 +16854,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="968">
+    <row r="968" x14ac:dyDescent="0.2">
       <c r="A968" s="0">
         <v>9.6599999999998385</v>
       </c>
@@ -16674,7 +16871,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="969">
+    <row r="969" x14ac:dyDescent="0.2">
       <c r="A969" s="0">
         <v>9.6699999999998383</v>
       </c>
@@ -16691,7 +16888,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="970">
+    <row r="970" x14ac:dyDescent="0.2">
       <c r="A970" s="0">
         <v>9.6799999999998381</v>
       </c>
@@ -16708,7 +16905,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="971">
+    <row r="971" x14ac:dyDescent="0.2">
       <c r="A971" s="0">
         <v>9.6899999999998379</v>
       </c>
@@ -16725,7 +16922,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="972">
+    <row r="972" x14ac:dyDescent="0.2">
       <c r="A972" s="0">
         <v>9.6999999999998376</v>
       </c>
@@ -16742,7 +16939,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="973">
+    <row r="973" x14ac:dyDescent="0.2">
       <c r="A973" s="0">
         <v>9.7099999999998374</v>
       </c>
@@ -16759,7 +16956,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="974">
+    <row r="974" x14ac:dyDescent="0.2">
       <c r="A974" s="0">
         <v>9.7199999999998372</v>
       </c>
@@ -16776,7 +16973,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="975">
+    <row r="975" x14ac:dyDescent="0.2">
       <c r="A975" s="0">
         <v>9.729999999999837</v>
       </c>
@@ -16793,7 +16990,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="976">
+    <row r="976" x14ac:dyDescent="0.2">
       <c r="A976" s="0">
         <v>9.7399999999998368</v>
       </c>
@@ -16810,7 +17007,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="977">
+    <row r="977" x14ac:dyDescent="0.2">
       <c r="A977" s="0">
         <v>9.7499999999998366</v>
       </c>
@@ -16827,7 +17024,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="978">
+    <row r="978" x14ac:dyDescent="0.2">
       <c r="A978" s="0">
         <v>9.7599999999998364</v>
       </c>
@@ -16844,7 +17041,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="979">
+    <row r="979" x14ac:dyDescent="0.2">
       <c r="A979" s="0">
         <v>9.7699999999998361</v>
       </c>
@@ -16861,7 +17058,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="980">
+    <row r="980" x14ac:dyDescent="0.2">
       <c r="A980" s="0">
         <v>9.7799999999998359</v>
       </c>
@@ -16878,7 +17075,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="981">
+    <row r="981" x14ac:dyDescent="0.2">
       <c r="A981" s="0">
         <v>9.7899999999998357</v>
       </c>
@@ -16895,7 +17092,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="982">
+    <row r="982" x14ac:dyDescent="0.2">
       <c r="A982" s="0">
         <v>9.7999999999998355</v>
       </c>
@@ -16912,7 +17109,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="983">
+    <row r="983" x14ac:dyDescent="0.2">
       <c r="A983" s="0">
         <v>9.8099999999998353</v>
       </c>
@@ -16929,7 +17126,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="984">
+    <row r="984" x14ac:dyDescent="0.2">
       <c r="A984" s="0">
         <v>9.8199999999998351</v>
       </c>
@@ -16946,7 +17143,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="985">
+    <row r="985" x14ac:dyDescent="0.2">
       <c r="A985" s="0">
         <v>9.8299999999998349</v>
       </c>
@@ -16963,7 +17160,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="986">
+    <row r="986" x14ac:dyDescent="0.2">
       <c r="A986" s="0">
         <v>9.8399999999998347</v>
       </c>
@@ -16980,7 +17177,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="987">
+    <row r="987" x14ac:dyDescent="0.2">
       <c r="A987" s="0">
         <v>9.8499999999998344</v>
       </c>
@@ -16997,7 +17194,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="988">
+    <row r="988" x14ac:dyDescent="0.2">
       <c r="A988" s="0">
         <v>9.8599999999998342</v>
       </c>
@@ -17014,7 +17211,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="989">
+    <row r="989" x14ac:dyDescent="0.2">
       <c r="A989" s="0">
         <v>9.869999999999834</v>
       </c>
@@ -17031,7 +17228,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="990">
+    <row r="990" x14ac:dyDescent="0.2">
       <c r="A990" s="0">
         <v>9.8799999999998338</v>
       </c>
@@ -17048,7 +17245,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="991">
+    <row r="991" x14ac:dyDescent="0.2">
       <c r="A991" s="0">
         <v>9.8899999999998336</v>
       </c>
@@ -17065,7 +17262,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="992">
+    <row r="992" x14ac:dyDescent="0.2">
       <c r="A992" s="0">
         <v>9.8999999999998334</v>
       </c>
@@ -17082,7 +17279,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="993">
+    <row r="993" x14ac:dyDescent="0.2">
       <c r="A993" s="0">
         <v>9.9099999999998332</v>
       </c>
@@ -17099,7 +17296,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="994">
+    <row r="994" x14ac:dyDescent="0.2">
       <c r="A994" s="0">
         <v>9.919999999999833</v>
       </c>
@@ -17116,7 +17313,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="995">
+    <row r="995" x14ac:dyDescent="0.2">
       <c r="A995" s="0">
         <v>9.9299999999998327</v>
       </c>
@@ -17133,7 +17330,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="996">
+    <row r="996" x14ac:dyDescent="0.2">
       <c r="A996" s="0">
         <v>9.9399999999998325</v>
       </c>
@@ -17150,7 +17347,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="997">
+    <row r="997" x14ac:dyDescent="0.2">
       <c r="A997" s="0">
         <v>9.9499999999998323</v>
       </c>
@@ -17167,7 +17364,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="998">
+    <row r="998" x14ac:dyDescent="0.2">
       <c r="A998" s="0">
         <v>9.9599999999998321</v>
       </c>
@@ -17184,7 +17381,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="999">
+    <row r="999" x14ac:dyDescent="0.2">
       <c r="A999" s="0">
         <v>9.9699999999998319</v>
       </c>
@@ -17201,7 +17398,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="1000">
+    <row r="1000" x14ac:dyDescent="0.2">
       <c r="A1000" s="0">
         <v>9.9799999999998317</v>
       </c>
@@ -17218,7 +17415,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="1001">
+    <row r="1001" x14ac:dyDescent="0.2">
       <c r="A1001" s="0">
         <v>9.9899999999998315</v>
       </c>
@@ -17235,7 +17432,7 @@
         <v>-1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="1002">
+    <row r="1002" x14ac:dyDescent="0.2">
       <c r="A1002" s="0">
         <v>9.9999999999998312</v>
       </c>
@@ -17252,7 +17449,7 @@
         <v>1.942890293093876e-16</v>
       </c>
     </row>
-    <row r="1003">
+    <row r="1003" x14ac:dyDescent="0.2">
       <c r="A1003" s="0">
         <v>10</v>
       </c>
@@ -17270,5 +17467,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>